--- a/TripDiaryDesign/여행다이어리_요구분석정의서.xlsx
+++ b/TripDiaryDesign/여행다이어리_요구분석정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AC99B6-DD09-44EB-88B1-379CD932F21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA323D95-9443-48C6-BF58-30201CBAF9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="376">
   <si>
     <t>업무</t>
   </si>
@@ -1426,6 +1426,57 @@
   </si>
   <si>
     <t>사용자가 대표 엠블럼을 클릭 했을 때 열리는 페이지이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main-021</t>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성된 게시글의 조회수를 저장하며 사용자에게는 노출되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main-021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 2글자 이상, 20글자 이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공백을 제외한 모든 문자 입력가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- _, -, . 제외한 특수문자 입력 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 5글자 이상, 20글자 이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 영문과 숫자 이외에 문자 입력 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이메일 형식 검사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1541,7 +1592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2131,13 +2182,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2357,6 +2421,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2369,45 +2439,51 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2459,6 +2535,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2495,6 +2574,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2504,6 +2604,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2534,6 +2643,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2576,15 +2691,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2594,12 +2700,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2642,17 +2742,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2675,9 +2766,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2708,6 +2796,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2729,9 +2820,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2756,19 +2844,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3301,11 +3380,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38:G38"/>
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="16.5" customHeight="1"/>
@@ -3320,58 +3399,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="E3" s="98"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="103">
         <v>44469</v>
       </c>
-      <c r="H3" s="100"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="34" t="s">
@@ -3389,10 +3468,10 @@
       <c r="E5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="34" t="s">
         <v>6</v>
       </c>
@@ -3411,10 +3490,10 @@
       <c r="E6" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
@@ -3431,10 +3510,10 @@
       <c r="E7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="76"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
@@ -3451,10 +3530,10 @@
       <c r="E8" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="78"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
@@ -3471,10 +3550,10 @@
       <c r="E9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
@@ -3491,10 +3570,10 @@
       <c r="E10" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1">
@@ -3511,10 +3590,10 @@
       <c r="E11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
@@ -3531,10 +3610,10 @@
       <c r="E12" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="32" t="s">
         <v>37</v>
       </c>
@@ -3553,10 +3632,10 @@
       <c r="E13" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="32" t="s">
         <v>250</v>
       </c>
@@ -3575,10 +3654,10 @@
       <c r="E14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="72"/>
+      <c r="G14" s="79"/>
       <c r="H14" s="32" t="s">
         <v>50</v>
       </c>
@@ -3597,10 +3676,10 @@
       <c r="E15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="79"/>
       <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
@@ -3617,10 +3696,10 @@
       <c r="E16" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="72"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1">
@@ -3637,10 +3716,10 @@
       <c r="E17" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="72"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1">
@@ -3657,10 +3736,10 @@
       <c r="E18" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="72"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="32" t="s">
         <v>57</v>
       </c>
@@ -3679,10 +3758,10 @@
       <c r="E19" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="G19" s="72"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="32" t="s">
         <v>41</v>
       </c>
@@ -3701,15 +3780,15 @@
       <c r="E20" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="72"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1">
+    <row r="21" spans="1:8" s="74" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="35"/>
       <c r="B21" s="33" t="s">
         <v>70</v>
@@ -3718,18 +3797,18 @@
         <v>128</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="72" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="72"/>
+        <v>51</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="G21" s="79"/>
       <c r="H21" s="32"/>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
+    <row r="22" spans="1:8" ht="18" customHeight="1">
       <c r="A22" s="35"/>
       <c r="B22" s="33" t="s">
         <v>74</v>
@@ -3741,17 +3820,15 @@
         <v>63</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1">
+        <v>212</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="79"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="35"/>
       <c r="B23" s="33" t="s">
         <v>77</v>
@@ -3760,16 +3837,18 @@
         <v>128</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="32"/>
+        <v>215</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="79"/>
+      <c r="H23" s="32" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1">
       <c r="A24" s="35"/>
@@ -3780,123 +3859,123 @@
         <v>128</v>
       </c>
       <c r="D24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="79"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1">
+      <c r="A25" s="35"/>
+      <c r="B25" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E25" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F25" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="41" t="s">
+      <c r="G25" s="79"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A26" s="39"/>
+      <c r="B26" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D26" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E26" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="80" t="s">
+      <c r="F26" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="80"/>
-      <c r="H25" s="41"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44" t="s">
+      <c r="G26" s="82"/>
+      <c r="H26" s="41"/>
+    </row>
+    <row r="27" spans="1:8" ht="18" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C27" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D27" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E27" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="101" t="s">
+      <c r="F27" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="101"/>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="32"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1">
       <c r="A28" s="46"/>
       <c r="B28" s="32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>110</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="F28" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="G28" s="72"/>
-      <c r="H28" s="32" t="s">
-        <v>243</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F28" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="79"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1">
       <c r="A29" s="46"/>
       <c r="B29" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>110</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="72"/>
-      <c r="H29" s="32"/>
+        <v>216</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" s="79"/>
+      <c r="H29" s="32" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1">
       <c r="A30" s="46"/>
       <c r="B30" s="32" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>110</v>
@@ -3905,20 +3984,18 @@
         <v>38</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="32" t="s">
-        <v>50</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F30" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="79"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1">
       <c r="A31" s="46"/>
       <c r="B31" s="32" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>110</v>
@@ -3927,162 +4004,164 @@
         <v>38</v>
       </c>
       <c r="E31" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="79"/>
+      <c r="H31" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="72" t="s">
+      <c r="F32" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="41" t="s">
+      <c r="G32" s="79"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A33" s="47"/>
+      <c r="B33" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C33" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D33" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E33" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="80" t="s">
+      <c r="F33" s="82" t="s">
         <v>218</v>
       </c>
-      <c r="G32" s="80"/>
-      <c r="H32" s="41"/>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44" t="s">
+      <c r="G33" s="82"/>
+      <c r="H33" s="41"/>
+    </row>
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="43"/>
+      <c r="B34" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C34" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D34" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E34" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="F33" s="79" t="s">
+      <c r="F34" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="G33" s="79"/>
-      <c r="H33" s="48"/>
-    </row>
-    <row r="34" spans="1:8" ht="18" customHeight="1">
-      <c r="A34" s="46"/>
-      <c r="B34" s="32" t="s">
+      <c r="G34" s="81"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C35" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D35" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E35" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="78" t="s">
+      <c r="F35" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G34" s="78"/>
-      <c r="H34" s="50"/>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="41" t="s">
+      <c r="G35" s="80"/>
+      <c r="H35" s="50"/>
+    </row>
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A36" s="47"/>
+      <c r="B36" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C36" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D36" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E36" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F36" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="G35" s="73"/>
-      <c r="H35" s="52" t="s">
+      <c r="G36" s="75"/>
+      <c r="H36" s="52" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="53" t="s">
+    <row r="37" spans="1:8" ht="18" customHeight="1">
+      <c r="A37" s="43"/>
+      <c r="B37" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C37" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D37" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E37" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="85" t="s">
+      <c r="F37" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="56"/>
-    </row>
-    <row r="37" spans="1:8" ht="18" customHeight="1">
-      <c r="A37" s="46"/>
-      <c r="B37" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" s="76"/>
-      <c r="H37" s="50" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="G37" s="89"/>
+      <c r="H37" s="56"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1">
       <c r="A38" s="46"/>
       <c r="B38" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="F38" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" s="76"/>
-      <c r="H38" s="50"/>
+        <v>159</v>
+      </c>
+      <c r="F38" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="78"/>
+      <c r="H38" s="50" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="46"/>
       <c r="B39" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>89</v>
@@ -4090,163 +4169,163 @@
       <c r="D39" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="E39" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="78" t="s">
-        <v>164</v>
+      <c r="E39" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" s="77" t="s">
+        <v>227</v>
       </c>
       <c r="G39" s="78"/>
       <c r="H39" s="50"/>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A40" s="57"/>
-      <c r="B40" s="58" t="s">
-        <v>337</v>
-      </c>
-      <c r="C40" s="59" t="s">
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A40" s="46"/>
+      <c r="B40" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="F40" s="210" t="s">
-        <v>339</v>
-      </c>
-      <c r="G40" s="210"/>
-      <c r="H40" s="61"/>
-    </row>
-    <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="D40" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="80"/>
+      <c r="H40" s="50"/>
+    </row>
+    <row r="41" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="57"/>
       <c r="B41" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="F41" s="86" t="s">
+        <v>339</v>
+      </c>
+      <c r="G41" s="86"/>
+      <c r="H41" s="61"/>
+    </row>
+    <row r="42" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A42" s="57"/>
+      <c r="B42" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C42" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D42" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="E41" s="60" t="s">
+      <c r="E42" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="F41" s="82" t="s">
+      <c r="F42" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="61" t="s">
+      <c r="G42" s="85"/>
+      <c r="H42" s="61" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="62" t="s">
+    <row r="43" spans="1:8" ht="18" customHeight="1">
+      <c r="A43" s="43"/>
+      <c r="B43" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C43" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D43" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="63" t="s">
+      <c r="E43" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="84" t="s">
+      <c r="F43" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="G42" s="84"/>
-      <c r="H42" s="64" t="s">
+      <c r="G43" s="87"/>
+      <c r="H43" s="64" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18" customHeight="1">
-      <c r="A43" s="46"/>
-      <c r="B43" s="33" t="s">
+    <row r="44" spans="1:8" ht="18" customHeight="1">
+      <c r="A44" s="46"/>
+      <c r="B44" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C44" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D44" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E44" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="F43" s="78" t="s">
+      <c r="F44" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="78"/>
-      <c r="H43" s="50"/>
-    </row>
-    <row r="44" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A44" s="47"/>
-      <c r="B44" s="40" t="s">
+      <c r="G44" s="80"/>
+      <c r="H44" s="50"/>
+    </row>
+    <row r="45" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A45" s="47"/>
+      <c r="B45" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C45" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D45" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E45" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="73" t="s">
+      <c r="F45" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="G44" s="73"/>
-      <c r="H44" s="52"/>
-    </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="54" t="s">
+      <c r="G45" s="75"/>
+      <c r="H45" s="52"/>
+    </row>
+    <row r="46" spans="1:8" ht="18" customHeight="1">
+      <c r="A46" s="43"/>
+      <c r="B46" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C46" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D46" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E46" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="F45" s="74" t="s">
+      <c r="F46" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="74"/>
-      <c r="H45" s="56"/>
-    </row>
-    <row r="46" spans="1:8" ht="18" customHeight="1">
-      <c r="A46" s="46"/>
-      <c r="B46" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="F46" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="G46" s="65"/>
-      <c r="H46" s="50"/>
-    </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="G46" s="76"/>
+      <c r="H46" s="56"/>
+    </row>
+    <row r="47" spans="1:8" ht="18" customHeight="1">
       <c r="A47" s="46"/>
       <c r="B47" s="33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>178</v>
@@ -4254,103 +4333,103 @@
       <c r="D47" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="65"/>
+      <c r="H47" s="50"/>
+    </row>
+    <row r="48" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A48" s="46"/>
+      <c r="B48" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="F47" s="89" t="s">
+      <c r="F48" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="G47" s="89"/>
-      <c r="H47" s="66" t="s">
+      <c r="G48" s="92"/>
+      <c r="H48" s="66" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A48" s="47"/>
-      <c r="B48" s="40" t="s">
+    <row r="49" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A49" s="47"/>
+      <c r="B49" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C49" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D49" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E49" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="F48" s="77" t="s">
+      <c r="F49" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="G48" s="77"/>
-      <c r="H48" s="52" t="s">
+      <c r="G49" s="93"/>
+      <c r="H49" s="52" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A49" s="57"/>
-      <c r="B49" s="67" t="s">
+    <row r="50" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A50" s="57"/>
+      <c r="B50" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C50" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="67" t="s">
+      <c r="D50" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="E49" s="68" t="s">
+      <c r="E50" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="F49" s="88" t="s">
+      <c r="F50" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="G49" s="88"/>
-      <c r="H49" s="69"/>
-    </row>
-    <row r="50" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="54" t="s">
+      <c r="G50" s="91"/>
+      <c r="H50" s="69"/>
+    </row>
+    <row r="51" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A51" s="43"/>
+      <c r="B51" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C51" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D51" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="55" t="s">
+      <c r="E51" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="F50" s="85" t="s">
+      <c r="F51" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="G50" s="86"/>
-      <c r="H50" s="56"/>
-    </row>
-    <row r="51" spans="1:8" ht="18" customHeight="1">
-      <c r="A51" s="46"/>
-      <c r="B51" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="G51" s="78"/>
-      <c r="H51" s="50"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="56"/>
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1">
       <c r="A52" s="46"/>
       <c r="B52" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>200</v>
@@ -4358,45 +4437,65 @@
       <c r="D52" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" s="80"/>
+      <c r="H52" s="50"/>
+    </row>
+    <row r="53" spans="1:8" ht="18" customHeight="1">
+      <c r="A53" s="46"/>
+      <c r="B53" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="F52" s="87" t="s">
+      <c r="F53" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="G52" s="87"/>
-      <c r="H52" s="50"/>
-    </row>
-    <row r="53" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="A53" s="47"/>
-      <c r="B53" s="40" t="s">
+      <c r="G53" s="90"/>
+      <c r="H53" s="50"/>
+    </row>
+    <row r="54" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="A54" s="47"/>
+      <c r="B54" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C54" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D54" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="E53" s="71" t="s">
+      <c r="E54" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="F53" s="81" t="s">
+      <c r="F54" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="G53" s="81"/>
-      <c r="H53" s="52"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:H2"/>
@@ -4405,8 +4504,8 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F16:G16"/>
@@ -4419,46 +4518,47 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F48:G48"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B54:B1048576">
+  <conditionalFormatting sqref="B55:B1048576">
     <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",B54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N",B55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C4 C26:C30 A26:B26 C32:C33 B27:B32 C36:C38 A33 B49:C50 C51:C1048576 B51:B53 A42">
+  <conditionalFormatting sqref="C1:C4 C27:C31 A27:B27 C33:C34 B28:B33 C37:C39 A34 B50:C51 C52:C1048576 B52:B54 A43">
     <cfRule type="containsText" dxfId="19" priority="56" operator="containsText" text="비회원">
       <formula>NOT(ISERROR(SEARCH("비회원",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C32">
     <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",C31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("비회원",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16 B5:C5">
@@ -4471,59 +4571,59 @@
       <formula>NOT(ISERROR(SEARCH("비회원",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C20 C23:C25 B6:B25">
+  <conditionalFormatting sqref="C24:C26 B6:B26 C6:C21">
     <cfRule type="containsText" dxfId="15" priority="28" operator="containsText" text="비회원">
       <formula>NOT(ISERROR(SEARCH("비회원",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C33">
+  <conditionalFormatting sqref="C33:C34">
     <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",C32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("비회원",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
+  <conditionalFormatting sqref="C22:C23">
     <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",C21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("비회원",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
+  <conditionalFormatting sqref="C35:C36">
     <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",C34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("비회원",C35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="비회원">
+      <formula>NOT(ISERROR(SEARCH("비회원",C42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:C44 B46:C47 B45">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="비회원">
+      <formula>NOT(ISERROR(SEARCH("비회원",B43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="비회원">
+      <formula>NOT(ISERROR(SEARCH("비회원",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="비회원">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="비회원">
       <formula>NOT(ISERROR(SEARCH("비회원",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:C43 B45:C46 B44">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",B42)))</formula>
+  <conditionalFormatting sqref="B48:C48 B49">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="비회원">
+      <formula>NOT(ISERROR(SEARCH("비회원",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",C44)))</formula>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="비회원">
+      <formula>NOT(ISERROR(SEARCH("비회원",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="비회원">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="비회원">
       <formula>NOT(ISERROR(SEARCH("비회원",C40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:C47 B48">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",B47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",C48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4533,10 +4633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H374"/>
+  <dimension ref="A1:I389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:E16"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C252" sqref="C252:E252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="18" customHeight="1"/>
@@ -4547,10 +4647,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="118"/>
+      <c r="B1" s="123"/>
       <c r="C1" s="8" t="s">
         <v>20</v>
       </c>
@@ -4562,108 +4662,108 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="108" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="108" t="s">
+      <c r="A5" s="107"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="113" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="108" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="108" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="108" t="s">
+      <c r="A8" s="107"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="103"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="103"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="117"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="122"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="104"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="122"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="118"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
@@ -4675,74 +4775,74 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="119" t="s">
+      <c r="B14" s="119"/>
+      <c r="C14" s="131" t="s">
         <v>285</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="106"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="146" t="s">
+      <c r="A16" s="110"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="134" t="s">
         <v>287</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="148"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="103"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="103"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="104"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="118"/>
+      <c r="B21" s="123"/>
       <c r="C21" s="8" t="s">
         <v>27</v>
       </c>
@@ -4754,65 +4854,65 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="119" t="s">
+      <c r="B22" s="119"/>
+      <c r="C22" s="131" t="s">
         <v>290</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="121"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="109" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="113" t="s">
         <v>291</v>
       </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
-      <c r="A24" s="103"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="111"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1">
-      <c r="A25" s="103"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
-      <c r="A26" s="104"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="115" t="s">
+      <c r="C26" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="118"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="8" t="s">
         <v>83</v>
       </c>
@@ -4824,70 +4924,70 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="119" t="s">
+      <c r="B29" s="119"/>
+      <c r="C29" s="131" t="s">
         <v>293</v>
       </c>
-      <c r="D29" s="120"/>
-      <c r="E29" s="121"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="113" t="s">
         <v>350</v>
       </c>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1">
-      <c r="A31" s="106"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="108" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="113" t="s">
         <v>294</v>
       </c>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1">
-      <c r="A32" s="103"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="110"/>
-      <c r="E32" s="111"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="116"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1">
-      <c r="A33" s="103"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="122"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1">
-      <c r="A34" s="104"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="120" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="116"/>
-      <c r="E34" s="117"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="122"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
     </row>
@@ -4897,10 +4997,10 @@
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="118"/>
+      <c r="B36" s="123"/>
       <c r="C36" s="8" t="s">
         <v>84</v>
       </c>
@@ -4914,76 +5014,76 @@
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="114"/>
-      <c r="C37" s="119" t="s">
+      <c r="B37" s="119"/>
+      <c r="C37" s="131" t="s">
         <v>296</v>
       </c>
-      <c r="D37" s="120"/>
-      <c r="E37" s="121"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="133"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1">
-      <c r="A38" s="105" t="s">
+      <c r="A38" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="108" t="s">
+      <c r="C38" s="113" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1">
-      <c r="A39" s="106"/>
-      <c r="B39" s="122"/>
-      <c r="C39" s="108" t="s">
+      <c r="A39" s="110"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="113" t="s">
         <v>298</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1">
-      <c r="A40" s="103"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="109" t="s">
+      <c r="C40" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="110"/>
-      <c r="E40" s="111"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="116"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1">
-      <c r="A41" s="103"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="117"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="122"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1">
-      <c r="A42" s="104"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="115" t="s">
+      <c r="C42" s="120" t="s">
         <v>295</v>
       </c>
-      <c r="D42" s="116"/>
-      <c r="E42" s="117"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="122"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1">
-      <c r="A44" s="112" t="s">
+      <c r="A44" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="118"/>
+      <c r="B44" s="123"/>
       <c r="C44" s="8" t="s">
         <v>87</v>
       </c>
@@ -4995,74 +5095,74 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1">
-      <c r="A45" s="112" t="s">
+      <c r="A45" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="119" t="s">
+      <c r="B45" s="119"/>
+      <c r="C45" s="131" t="s">
         <v>299</v>
       </c>
-      <c r="D45" s="120"/>
-      <c r="E45" s="121"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="133"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1">
-      <c r="A46" s="105" t="s">
+      <c r="A46" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="122" t="s">
+      <c r="B46" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="108" t="s">
+      <c r="C46" s="113" t="s">
         <v>300</v>
       </c>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1">
-      <c r="A47" s="106"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="108" t="s">
+      <c r="A47" s="110"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1">
-      <c r="A48" s="103"/>
+      <c r="A48" s="107"/>
       <c r="B48" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="109" t="s">
+      <c r="C48" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
     </row>
     <row r="49" spans="1:5" ht="18" customHeight="1">
-      <c r="A49" s="103"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="115"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="122"/>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1">
-      <c r="A50" s="104"/>
+      <c r="A50" s="108"/>
       <c r="B50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="115" t="s">
+      <c r="C50" s="120" t="s">
         <v>302</v>
       </c>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="122"/>
     </row>
     <row r="52" spans="1:5" ht="18" customHeight="1">
-      <c r="A52" s="112" t="s">
+      <c r="A52" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="118"/>
+      <c r="B52" s="123"/>
       <c r="C52" s="8" t="s">
         <v>90</v>
       </c>
@@ -5074,83 +5174,83 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" customHeight="1">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="114"/>
-      <c r="C53" s="151" t="s">
+      <c r="B53" s="119"/>
+      <c r="C53" s="165" t="s">
         <v>304</v>
       </c>
-      <c r="D53" s="152"/>
-      <c r="E53" s="153"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="130"/>
     </row>
     <row r="54" spans="1:5" ht="18" customHeight="1">
-      <c r="A54" s="105" t="s">
+      <c r="A54" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="122" t="s">
+      <c r="B54" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="146" t="s">
+      <c r="C54" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="147"/>
-      <c r="E54" s="148"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="136"/>
     </row>
     <row r="55" spans="1:5" ht="18" customHeight="1">
-      <c r="A55" s="106"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="146" t="s">
+      <c r="A55" s="110"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="134" t="s">
         <v>351</v>
       </c>
-      <c r="D55" s="147"/>
-      <c r="E55" s="148"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="136"/>
     </row>
     <row r="56" spans="1:5" ht="18" customHeight="1">
-      <c r="A56" s="106"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="146" t="s">
+      <c r="A56" s="110"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="134" t="s">
         <v>305</v>
       </c>
-      <c r="D56" s="147"/>
-      <c r="E56" s="148"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="136"/>
     </row>
     <row r="57" spans="1:5" ht="18" customHeight="1">
-      <c r="A57" s="103"/>
+      <c r="A57" s="107"/>
       <c r="B57" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="157" t="s">
+      <c r="C57" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="158"/>
-      <c r="E57" s="159"/>
+      <c r="D57" s="170"/>
+      <c r="E57" s="171"/>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1">
-      <c r="A58" s="103"/>
+      <c r="A58" s="107"/>
       <c r="B58" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="115"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="117"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="122"/>
     </row>
     <row r="59" spans="1:5" ht="18" customHeight="1">
-      <c r="A59" s="104"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="115" t="s">
+      <c r="C59" s="120" t="s">
         <v>306</v>
       </c>
-      <c r="D59" s="116"/>
-      <c r="E59" s="117"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="122"/>
     </row>
     <row r="61" spans="1:5" ht="18" customHeight="1">
-      <c r="A61" s="112" t="s">
+      <c r="A61" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="118"/>
+      <c r="B61" s="123"/>
       <c r="C61" s="8" t="s">
         <v>92</v>
       </c>
@@ -5162,65 +5262,65 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="18" customHeight="1">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="114"/>
-      <c r="C62" s="151" t="s">
+      <c r="B62" s="119"/>
+      <c r="C62" s="165" t="s">
         <v>307</v>
       </c>
-      <c r="D62" s="152"/>
-      <c r="E62" s="153"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="130"/>
     </row>
     <row r="63" spans="1:5" ht="18" customHeight="1">
-      <c r="A63" s="105" t="s">
+      <c r="A63" s="109" t="s">
         <v>17</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="181" t="s">
+      <c r="C63" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="147"/>
-      <c r="E63" s="148"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="136"/>
     </row>
     <row r="64" spans="1:5" ht="18" customHeight="1">
-      <c r="A64" s="103"/>
+      <c r="A64" s="107"/>
       <c r="B64" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="157" t="s">
+      <c r="C64" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="158"/>
-      <c r="E64" s="159"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="171"/>
     </row>
     <row r="65" spans="1:5" ht="18" customHeight="1">
-      <c r="A65" s="103"/>
+      <c r="A65" s="107"/>
       <c r="B65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="115"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="117"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="121"/>
+      <c r="E65" s="122"/>
     </row>
     <row r="66" spans="1:5" ht="18" customHeight="1">
-      <c r="A66" s="104"/>
+      <c r="A66" s="108"/>
       <c r="B66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="115" t="s">
+      <c r="C66" s="120" t="s">
         <v>308</v>
       </c>
-      <c r="D66" s="116"/>
-      <c r="E66" s="117"/>
+      <c r="D66" s="121"/>
+      <c r="E66" s="122"/>
     </row>
     <row r="68" spans="1:5" ht="18" customHeight="1">
-      <c r="A68" s="112" t="s">
+      <c r="A68" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="118"/>
+      <c r="B68" s="123"/>
       <c r="C68" s="8" t="s">
         <v>94</v>
       </c>
@@ -5232,63 +5332,63 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1">
-      <c r="A69" s="112" t="s">
+      <c r="A69" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="114"/>
-      <c r="C69" s="151" t="s">
+      <c r="B69" s="119"/>
+      <c r="C69" s="165" t="s">
         <v>309</v>
       </c>
-      <c r="D69" s="152"/>
-      <c r="E69" s="153"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="130"/>
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1">
-      <c r="A70" s="105" t="s">
+      <c r="A70" s="109" t="s">
         <v>17</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="181" t="s">
+      <c r="C70" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="D70" s="147"/>
-      <c r="E70" s="148"/>
+      <c r="D70" s="135"/>
+      <c r="E70" s="136"/>
     </row>
     <row r="71" spans="1:5" ht="18" customHeight="1">
-      <c r="A71" s="103"/>
+      <c r="A71" s="107"/>
       <c r="B71" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="157" t="s">
+      <c r="C71" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="D71" s="158"/>
-      <c r="E71" s="159"/>
+      <c r="D71" s="170"/>
+      <c r="E71" s="171"/>
     </row>
     <row r="72" spans="1:5" ht="18" customHeight="1">
-      <c r="A72" s="103"/>
+      <c r="A72" s="107"/>
       <c r="B72" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="115"/>
-      <c r="D72" s="116"/>
-      <c r="E72" s="117"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="122"/>
     </row>
     <row r="73" spans="1:5" ht="18" customHeight="1">
-      <c r="A73" s="104"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="115"/>
-      <c r="D73" s="116"/>
-      <c r="E73" s="117"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="121"/>
+      <c r="E73" s="122"/>
     </row>
     <row r="75" spans="1:5" ht="18" customHeight="1">
-      <c r="A75" s="112" t="s">
+      <c r="A75" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="118"/>
+      <c r="B75" s="123"/>
       <c r="C75" s="8" t="s">
         <v>96</v>
       </c>
@@ -5300,92 +5400,92 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="18" customHeight="1">
-      <c r="A76" s="112" t="s">
+      <c r="A76" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="118"/>
-      <c r="C76" s="151" t="s">
+      <c r="B76" s="123"/>
+      <c r="C76" s="165" t="s">
         <v>310</v>
       </c>
-      <c r="D76" s="152"/>
-      <c r="E76" s="153"/>
+      <c r="D76" s="129"/>
+      <c r="E76" s="130"/>
     </row>
     <row r="77" spans="1:5" ht="18" customHeight="1">
-      <c r="A77" s="102" t="s">
+      <c r="A77" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="154" t="s">
+      <c r="B77" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="146" t="s">
+      <c r="C77" s="134" t="s">
         <v>311</v>
       </c>
-      <c r="D77" s="147"/>
-      <c r="E77" s="148"/>
+      <c r="D77" s="135"/>
+      <c r="E77" s="136"/>
     </row>
     <row r="78" spans="1:5" ht="18" customHeight="1">
-      <c r="A78" s="103"/>
-      <c r="B78" s="155"/>
-      <c r="C78" s="146" t="s">
+      <c r="A78" s="107"/>
+      <c r="B78" s="167"/>
+      <c r="C78" s="134" t="s">
         <v>312</v>
       </c>
-      <c r="D78" s="147"/>
-      <c r="E78" s="148"/>
+      <c r="D78" s="135"/>
+      <c r="E78" s="136"/>
     </row>
     <row r="79" spans="1:5" ht="18" customHeight="1">
-      <c r="A79" s="103"/>
-      <c r="B79" s="155"/>
-      <c r="C79" s="146" t="s">
+      <c r="A79" s="107"/>
+      <c r="B79" s="167"/>
+      <c r="C79" s="134" t="s">
         <v>313</v>
       </c>
-      <c r="D79" s="147"/>
-      <c r="E79" s="148"/>
+      <c r="D79" s="135"/>
+      <c r="E79" s="136"/>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1">
-      <c r="A80" s="103"/>
-      <c r="B80" s="156"/>
-      <c r="C80" s="181" t="s">
+      <c r="A80" s="107"/>
+      <c r="B80" s="168"/>
+      <c r="C80" s="189" t="s">
         <v>314</v>
       </c>
-      <c r="D80" s="166"/>
-      <c r="E80" s="167"/>
+      <c r="D80" s="178"/>
+      <c r="E80" s="179"/>
     </row>
     <row r="81" spans="1:5" ht="18" customHeight="1">
-      <c r="A81" s="103"/>
+      <c r="A81" s="107"/>
       <c r="B81" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="157" t="s">
+      <c r="C81" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="D81" s="158"/>
-      <c r="E81" s="159"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="171"/>
     </row>
     <row r="82" spans="1:5" ht="18" customHeight="1">
-      <c r="A82" s="103"/>
+      <c r="A82" s="107"/>
       <c r="B82" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="115"/>
-      <c r="D82" s="116"/>
-      <c r="E82" s="117"/>
+      <c r="C82" s="120"/>
+      <c r="D82" s="121"/>
+      <c r="E82" s="122"/>
     </row>
     <row r="83" spans="1:5" ht="18" customHeight="1">
-      <c r="A83" s="104"/>
+      <c r="A83" s="108"/>
       <c r="B83" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="115" t="s">
+      <c r="C83" s="120" t="s">
         <v>315</v>
       </c>
-      <c r="D83" s="116"/>
-      <c r="E83" s="117"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="122"/>
     </row>
     <row r="85" spans="1:5" ht="18" customHeight="1">
-      <c r="A85" s="182" t="s">
+      <c r="A85" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="183"/>
+      <c r="B85" s="191"/>
       <c r="C85" s="14" t="s">
         <v>97</v>
       </c>
@@ -5397,63 +5497,63 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="18" customHeight="1">
-      <c r="A86" s="182" t="s">
+      <c r="A86" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="183"/>
-      <c r="C86" s="184" t="s">
+      <c r="B86" s="191"/>
+      <c r="C86" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="185"/>
-      <c r="E86" s="186"/>
+      <c r="D86" s="193"/>
+      <c r="E86" s="194"/>
     </row>
     <row r="87" spans="1:5" ht="18" customHeight="1">
-      <c r="A87" s="187" t="s">
+      <c r="A87" s="195" t="s">
         <v>17</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="197" t="s">
+      <c r="C87" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="D87" s="190"/>
-      <c r="E87" s="190"/>
+      <c r="D87" s="199"/>
+      <c r="E87" s="199"/>
     </row>
     <row r="88" spans="1:5" ht="18" customHeight="1">
-      <c r="A88" s="188"/>
+      <c r="A88" s="196"/>
       <c r="B88" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="191" t="s">
+      <c r="C88" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="192"/>
-      <c r="E88" s="193"/>
+      <c r="D88" s="201"/>
+      <c r="E88" s="202"/>
     </row>
     <row r="89" spans="1:5" ht="18" customHeight="1">
-      <c r="A89" s="188"/>
+      <c r="A89" s="196"/>
       <c r="B89" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="194"/>
-      <c r="D89" s="195"/>
-      <c r="E89" s="196"/>
+      <c r="C89" s="203"/>
+      <c r="D89" s="204"/>
+      <c r="E89" s="205"/>
     </row>
     <row r="90" spans="1:5" ht="18" customHeight="1">
-      <c r="A90" s="189"/>
+      <c r="A90" s="197"/>
       <c r="B90" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="194"/>
-      <c r="D90" s="195"/>
-      <c r="E90" s="196"/>
+      <c r="C90" s="203"/>
+      <c r="D90" s="204"/>
+      <c r="E90" s="205"/>
     </row>
     <row r="92" spans="1:5" ht="18" customHeight="1">
-      <c r="A92" s="182" t="s">
+      <c r="A92" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="183"/>
+      <c r="B92" s="191"/>
       <c r="C92" s="14" t="s">
         <v>99</v>
       </c>
@@ -5465,63 +5565,63 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="18" customHeight="1">
-      <c r="A93" s="182" t="s">
+      <c r="A93" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="B93" s="183"/>
-      <c r="C93" s="184" t="s">
+      <c r="B93" s="191"/>
+      <c r="C93" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="D93" s="185"/>
-      <c r="E93" s="186"/>
+      <c r="D93" s="193"/>
+      <c r="E93" s="194"/>
     </row>
     <row r="94" spans="1:5" ht="18" customHeight="1">
-      <c r="A94" s="187" t="s">
+      <c r="A94" s="195" t="s">
         <v>17</v>
       </c>
       <c r="B94" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="197" t="s">
+      <c r="C94" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="D94" s="190"/>
-      <c r="E94" s="190"/>
+      <c r="D94" s="199"/>
+      <c r="E94" s="199"/>
     </row>
     <row r="95" spans="1:5" ht="18" customHeight="1">
-      <c r="A95" s="188"/>
+      <c r="A95" s="196"/>
       <c r="B95" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="198" t="s">
+      <c r="C95" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="D95" s="199"/>
-      <c r="E95" s="200"/>
+      <c r="D95" s="207"/>
+      <c r="E95" s="208"/>
     </row>
     <row r="96" spans="1:5" ht="18" customHeight="1">
-      <c r="A96" s="188"/>
+      <c r="A96" s="196"/>
       <c r="B96" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="191"/>
-      <c r="D96" s="192"/>
-      <c r="E96" s="193"/>
+      <c r="C96" s="200"/>
+      <c r="D96" s="201"/>
+      <c r="E96" s="202"/>
     </row>
     <row r="97" spans="1:5" ht="18" customHeight="1">
-      <c r="A97" s="189"/>
+      <c r="A97" s="197"/>
       <c r="B97" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="194"/>
-      <c r="D97" s="195"/>
-      <c r="E97" s="196"/>
+      <c r="C97" s="203"/>
+      <c r="D97" s="204"/>
+      <c r="E97" s="205"/>
     </row>
     <row r="99" spans="1:5" ht="18" customHeight="1">
-      <c r="A99" s="182" t="s">
+      <c r="A99" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="183"/>
+      <c r="B99" s="191"/>
       <c r="C99" s="14" t="s">
         <v>100</v>
       </c>
@@ -5533,74 +5633,74 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="18" customHeight="1">
-      <c r="A100" s="182" t="s">
+      <c r="A100" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="183"/>
-      <c r="C100" s="184" t="s">
+      <c r="B100" s="191"/>
+      <c r="C100" s="192" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="185"/>
-      <c r="E100" s="186"/>
+      <c r="D100" s="193"/>
+      <c r="E100" s="194"/>
     </row>
     <row r="101" spans="1:5" ht="18" customHeight="1">
-      <c r="A101" s="187" t="s">
+      <c r="A101" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="B101" s="201" t="s">
+      <c r="B101" s="209" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="190" t="s">
+      <c r="C101" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="190"/>
-      <c r="E101" s="190"/>
+      <c r="D101" s="199"/>
+      <c r="E101" s="199"/>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1">
-      <c r="A102" s="188"/>
-      <c r="B102" s="202"/>
-      <c r="C102" s="190" t="s">
+      <c r="A102" s="196"/>
+      <c r="B102" s="210"/>
+      <c r="C102" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="D102" s="190"/>
-      <c r="E102" s="190"/>
+      <c r="D102" s="199"/>
+      <c r="E102" s="199"/>
     </row>
     <row r="103" spans="1:5" ht="18" customHeight="1">
-      <c r="A103" s="188"/>
+      <c r="A103" s="196"/>
       <c r="B103" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="191" t="s">
+      <c r="C103" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="D103" s="192"/>
-      <c r="E103" s="193"/>
+      <c r="D103" s="201"/>
+      <c r="E103" s="202"/>
     </row>
     <row r="104" spans="1:5" ht="18" customHeight="1">
-      <c r="A104" s="188"/>
+      <c r="A104" s="196"/>
       <c r="B104" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="194" t="s">
+      <c r="C104" s="203" t="s">
         <v>99</v>
       </c>
-      <c r="D104" s="195"/>
-      <c r="E104" s="196"/>
+      <c r="D104" s="204"/>
+      <c r="E104" s="205"/>
     </row>
     <row r="105" spans="1:5" ht="18" customHeight="1">
-      <c r="A105" s="189"/>
+      <c r="A105" s="197"/>
       <c r="B105" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="194"/>
-      <c r="D105" s="195"/>
-      <c r="E105" s="196"/>
+      <c r="C105" s="203"/>
+      <c r="D105" s="204"/>
+      <c r="E105" s="205"/>
     </row>
     <row r="107" spans="1:5" ht="18" customHeight="1">
-      <c r="A107" s="182" t="s">
+      <c r="A107" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="183"/>
+      <c r="B107" s="191"/>
       <c r="C107" s="14" t="s">
         <v>104</v>
       </c>
@@ -5612,67 +5712,67 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="18" customHeight="1">
-      <c r="A108" s="182" t="s">
+      <c r="A108" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="183"/>
-      <c r="C108" s="184" t="s">
+      <c r="B108" s="191"/>
+      <c r="C108" s="192" t="s">
         <v>210</v>
       </c>
-      <c r="D108" s="185"/>
-      <c r="E108" s="186"/>
+      <c r="D108" s="193"/>
+      <c r="E108" s="194"/>
     </row>
     <row r="109" spans="1:5" ht="18" customHeight="1">
-      <c r="A109" s="187" t="s">
+      <c r="A109" s="195" t="s">
         <v>17</v>
       </c>
       <c r="B109" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="197" t="s">
+      <c r="C109" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="D109" s="190"/>
-      <c r="E109" s="190"/>
+      <c r="D109" s="199"/>
+      <c r="E109" s="199"/>
     </row>
     <row r="110" spans="1:5" ht="18" customHeight="1">
-      <c r="A110" s="188"/>
+      <c r="A110" s="196"/>
       <c r="B110" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="191" t="s">
+      <c r="C110" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="D110" s="192"/>
-      <c r="E110" s="193"/>
+      <c r="D110" s="201"/>
+      <c r="E110" s="202"/>
     </row>
     <row r="111" spans="1:5" ht="18" customHeight="1">
-      <c r="A111" s="188"/>
+      <c r="A111" s="196"/>
       <c r="B111" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C111" s="194" t="s">
+      <c r="C111" s="203" t="s">
         <v>90</v>
       </c>
-      <c r="D111" s="195"/>
-      <c r="E111" s="196"/>
+      <c r="D111" s="204"/>
+      <c r="E111" s="205"/>
     </row>
     <row r="112" spans="1:5" ht="18" customHeight="1">
-      <c r="A112" s="189"/>
+      <c r="A112" s="197"/>
       <c r="B112" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="194" t="s">
+      <c r="C112" s="203" t="s">
         <v>272</v>
       </c>
-      <c r="D112" s="195"/>
-      <c r="E112" s="196"/>
-    </row>
-    <row r="114" spans="1:5" ht="18" customHeight="1">
-      <c r="A114" s="182" t="s">
+      <c r="D112" s="204"/>
+      <c r="E112" s="205"/>
+    </row>
+    <row r="114" spans="1:9" ht="18" customHeight="1">
+      <c r="A114" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B114" s="183"/>
+      <c r="B114" s="191"/>
       <c r="C114" s="14" t="s">
         <v>105</v>
       </c>
@@ -5683,136 +5783,147 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="18" customHeight="1">
-      <c r="A115" s="182" t="s">
+    <row r="115" spans="1:9" ht="18" customHeight="1">
+      <c r="A115" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="203"/>
-      <c r="C115" s="184" t="s">
+      <c r="B115" s="211"/>
+      <c r="C115" s="192" t="s">
         <v>211</v>
       </c>
-      <c r="D115" s="185"/>
-      <c r="E115" s="186"/>
-    </row>
-    <row r="116" spans="1:5" ht="18" customHeight="1">
-      <c r="A116" s="204" t="s">
+      <c r="D115" s="193"/>
+      <c r="E115" s="194"/>
+    </row>
+    <row r="116" spans="1:9" ht="18" customHeight="1">
+      <c r="A116" s="212" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C116" s="197" t="s">
+      <c r="C116" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="D116" s="190"/>
-      <c r="E116" s="190"/>
-    </row>
-    <row r="117" spans="1:5" ht="18" customHeight="1">
-      <c r="A117" s="188"/>
+      <c r="D116" s="199"/>
+      <c r="E116" s="199"/>
+    </row>
+    <row r="117" spans="1:9" ht="18" customHeight="1">
+      <c r="A117" s="196"/>
       <c r="B117" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C117" s="191" t="s">
+      <c r="C117" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="D117" s="192"/>
-      <c r="E117" s="193"/>
-    </row>
-    <row r="118" spans="1:5" ht="18" customHeight="1">
-      <c r="A118" s="188"/>
+      <c r="D117" s="201"/>
+      <c r="E117" s="202"/>
+    </row>
+    <row r="118" spans="1:9" ht="18" customHeight="1">
+      <c r="A118" s="196"/>
       <c r="B118" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C118" s="194" t="s">
+      <c r="C118" s="203" t="s">
         <v>90</v>
       </c>
-      <c r="D118" s="195"/>
-      <c r="E118" s="196"/>
-    </row>
-    <row r="119" spans="1:5" ht="18" customHeight="1">
-      <c r="A119" s="189"/>
+      <c r="D118" s="204"/>
+      <c r="E118" s="205"/>
+    </row>
+    <row r="119" spans="1:9" ht="18" customHeight="1">
+      <c r="A119" s="197"/>
       <c r="B119" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C119" s="194" t="s">
+      <c r="C119" s="203" t="s">
         <v>272</v>
       </c>
-      <c r="D119" s="195"/>
-      <c r="E119" s="196"/>
-    </row>
-    <row r="121" spans="1:5" ht="18" customHeight="1">
-      <c r="A121" s="182" t="s">
+      <c r="D119" s="204"/>
+      <c r="E119" s="205"/>
+    </row>
+    <row r="121" spans="1:9" ht="18" customHeight="1">
+      <c r="A121" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B121" s="183"/>
+      <c r="B121" s="191"/>
       <c r="C121" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D121" s="15" t="s">
+      <c r="D121" s="73" t="s">
         <v>11</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="18" customHeight="1">
-      <c r="A122" s="182" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="18" customHeight="1">
+      <c r="A122" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="183"/>
-      <c r="C122" s="184" t="s">
-        <v>274</v>
-      </c>
-      <c r="D122" s="185"/>
-      <c r="E122" s="186"/>
-    </row>
-    <row r="123" spans="1:5" ht="18" customHeight="1">
-      <c r="A123" s="187" t="s">
+      <c r="B122" s="191"/>
+      <c r="C122" s="192" t="s">
+        <v>365</v>
+      </c>
+      <c r="D122" s="193"/>
+      <c r="E122" s="194"/>
+    </row>
+    <row r="123" spans="1:9" ht="18" customHeight="1">
+      <c r="A123" s="195" t="s">
         <v>17</v>
       </c>
       <c r="B123" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C123" s="197" t="s">
-        <v>275</v>
-      </c>
-      <c r="D123" s="190"/>
-      <c r="E123" s="190"/>
-    </row>
-    <row r="124" spans="1:5" ht="18" customHeight="1">
-      <c r="A124" s="188"/>
+      <c r="C123" s="198" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123" s="199"/>
+      <c r="E123" s="199"/>
+    </row>
+    <row r="124" spans="1:9" ht="18" customHeight="1">
+      <c r="A124" s="196"/>
       <c r="B124" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="191" t="s">
+      <c r="C124" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="D124" s="192"/>
-      <c r="E124" s="193"/>
-    </row>
-    <row r="125" spans="1:5" ht="18" customHeight="1">
-      <c r="A125" s="188"/>
+      <c r="D124" s="201"/>
+      <c r="E124" s="202"/>
+    </row>
+    <row r="125" spans="1:9" ht="18" customHeight="1">
+      <c r="A125" s="196"/>
       <c r="B125" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="194"/>
-      <c r="D125" s="195"/>
-      <c r="E125" s="196"/>
-    </row>
-    <row r="126" spans="1:5" ht="18" customHeight="1">
-      <c r="A126" s="189"/>
+      <c r="C125" s="203"/>
+      <c r="D125" s="204"/>
+      <c r="E125" s="205"/>
+    </row>
+    <row r="126" spans="1:9" ht="18" customHeight="1">
+      <c r="A126" s="197"/>
       <c r="B126" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="194"/>
-      <c r="D126" s="195"/>
-      <c r="E126" s="196"/>
-    </row>
-    <row r="128" spans="1:5" ht="18" customHeight="1">
-      <c r="A128" s="182" t="s">
+      <c r="C126" s="203"/>
+      <c r="D126" s="204"/>
+      <c r="E126" s="205"/>
+    </row>
+    <row r="127" spans="1:9" ht="18" customHeight="1">
+      <c r="A127" s="74"/>
+      <c r="B127" s="74"/>
+      <c r="C127" s="74"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="74"/>
+      <c r="G127" s="74"/>
+      <c r="H127" s="74"/>
+      <c r="I127" s="74"/>
+    </row>
+    <row r="128" spans="1:9" ht="18" customHeight="1">
+      <c r="A128" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="183"/>
+      <c r="B128" s="191"/>
       <c r="C128" s="14" t="s">
         <v>107</v>
       </c>
@@ -5820,71 +5931,67 @@
         <v>11</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="18" customHeight="1">
-      <c r="A129" s="182" t="s">
+      <c r="A129" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="B129" s="203"/>
-      <c r="C129" s="184" t="s">
-        <v>214</v>
-      </c>
-      <c r="D129" s="185"/>
-      <c r="E129" s="186"/>
+      <c r="B129" s="191"/>
+      <c r="C129" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" s="193"/>
+      <c r="E129" s="194"/>
     </row>
     <row r="130" spans="1:5" ht="18" customHeight="1">
-      <c r="A130" s="204" t="s">
+      <c r="A130" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C130" s="190" t="s">
-        <v>277</v>
-      </c>
-      <c r="D130" s="190"/>
-      <c r="E130" s="190"/>
+      <c r="C130" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="D130" s="199"/>
+      <c r="E130" s="199"/>
     </row>
     <row r="131" spans="1:5" ht="18" customHeight="1">
-      <c r="A131" s="188"/>
+      <c r="A131" s="196"/>
       <c r="B131" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C131" s="191" t="s">
+      <c r="C131" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="D131" s="192"/>
-      <c r="E131" s="193"/>
+      <c r="D131" s="201"/>
+      <c r="E131" s="202"/>
     </row>
     <row r="132" spans="1:5" ht="18" customHeight="1">
-      <c r="A132" s="188"/>
+      <c r="A132" s="196"/>
       <c r="B132" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C132" s="194" t="s">
-        <v>106</v>
-      </c>
-      <c r="D132" s="195"/>
-      <c r="E132" s="196"/>
+      <c r="C132" s="203"/>
+      <c r="D132" s="204"/>
+      <c r="E132" s="205"/>
     </row>
     <row r="133" spans="1:5" ht="18" customHeight="1">
-      <c r="A133" s="189"/>
+      <c r="A133" s="197"/>
       <c r="B133" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="194" t="s">
-        <v>278</v>
-      </c>
-      <c r="D133" s="195"/>
-      <c r="E133" s="196"/>
+      <c r="C133" s="203"/>
+      <c r="D133" s="204"/>
+      <c r="E133" s="205"/>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1">
-      <c r="A135" s="182" t="s">
+      <c r="A135" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B135" s="183"/>
+      <c r="B135" s="191"/>
       <c r="C135" s="14" t="s">
         <v>108</v>
       </c>
@@ -5892,67 +5999,71 @@
         <v>11</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>67</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="18" customHeight="1">
-      <c r="A136" s="182" t="s">
+      <c r="A136" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="B136" s="183"/>
-      <c r="C136" s="184" t="s">
-        <v>279</v>
-      </c>
-      <c r="D136" s="185"/>
-      <c r="E136" s="186"/>
+      <c r="B136" s="211"/>
+      <c r="C136" s="192" t="s">
+        <v>214</v>
+      </c>
+      <c r="D136" s="193"/>
+      <c r="E136" s="194"/>
     </row>
     <row r="137" spans="1:5" ht="18" customHeight="1">
-      <c r="A137" s="187" t="s">
+      <c r="A137" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C137" s="190" t="s">
-        <v>69</v>
-      </c>
-      <c r="D137" s="190"/>
-      <c r="E137" s="190"/>
+      <c r="C137" s="199" t="s">
+        <v>277</v>
+      </c>
+      <c r="D137" s="199"/>
+      <c r="E137" s="199"/>
     </row>
     <row r="138" spans="1:5" ht="18" customHeight="1">
-      <c r="A138" s="188"/>
+      <c r="A138" s="196"/>
       <c r="B138" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C138" s="191" t="s">
+      <c r="C138" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="D138" s="192"/>
-      <c r="E138" s="193"/>
+      <c r="D138" s="201"/>
+      <c r="E138" s="202"/>
     </row>
     <row r="139" spans="1:5" ht="18" customHeight="1">
-      <c r="A139" s="188"/>
+      <c r="A139" s="196"/>
       <c r="B139" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C139" s="194"/>
-      <c r="D139" s="195"/>
-      <c r="E139" s="196"/>
+      <c r="C139" s="203" t="s">
+        <v>106</v>
+      </c>
+      <c r="D139" s="204"/>
+      <c r="E139" s="205"/>
     </row>
     <row r="140" spans="1:5" ht="18" customHeight="1">
-      <c r="A140" s="189"/>
+      <c r="A140" s="197"/>
       <c r="B140" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C140" s="194"/>
-      <c r="D140" s="195"/>
-      <c r="E140" s="196"/>
+      <c r="C140" s="203" t="s">
+        <v>278</v>
+      </c>
+      <c r="D140" s="204"/>
+      <c r="E140" s="205"/>
     </row>
     <row r="142" spans="1:5" ht="18" customHeight="1">
-      <c r="A142" s="182" t="s">
+      <c r="A142" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B142" s="183"/>
+      <c r="B142" s="191"/>
       <c r="C142" s="14" t="s">
         <v>280</v>
       </c>
@@ -5960,67 +6071,67 @@
         <v>11</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="18" customHeight="1">
-      <c r="A143" s="182" t="s">
+      <c r="A143" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="B143" s="203"/>
-      <c r="C143" s="184" t="s">
-        <v>72</v>
-      </c>
-      <c r="D143" s="185"/>
-      <c r="E143" s="186"/>
+      <c r="B143" s="191"/>
+      <c r="C143" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D143" s="193"/>
+      <c r="E143" s="194"/>
     </row>
     <row r="144" spans="1:5" ht="18" customHeight="1">
-      <c r="A144" s="204" t="s">
+      <c r="A144" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="B144" s="19" t="s">
+      <c r="B144" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C144" s="190" t="s">
-        <v>73</v>
-      </c>
-      <c r="D144" s="190"/>
-      <c r="E144" s="190"/>
+      <c r="C144" s="199" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" s="199"/>
+      <c r="E144" s="199"/>
     </row>
     <row r="145" spans="1:5" ht="18" customHeight="1">
-      <c r="A145" s="188"/>
+      <c r="A145" s="196"/>
       <c r="B145" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C145" s="191" t="s">
+      <c r="C145" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="D145" s="192"/>
-      <c r="E145" s="193"/>
+      <c r="D145" s="201"/>
+      <c r="E145" s="202"/>
     </row>
     <row r="146" spans="1:5" ht="18" customHeight="1">
-      <c r="A146" s="188"/>
+      <c r="A146" s="196"/>
       <c r="B146" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C146" s="194"/>
-      <c r="D146" s="195"/>
-      <c r="E146" s="196"/>
+      <c r="C146" s="203"/>
+      <c r="D146" s="204"/>
+      <c r="E146" s="205"/>
     </row>
     <row r="147" spans="1:5" ht="18" customHeight="1">
-      <c r="A147" s="189"/>
+      <c r="A147" s="197"/>
       <c r="B147" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C147" s="194"/>
-      <c r="D147" s="195"/>
-      <c r="E147" s="196"/>
+      <c r="C147" s="203"/>
+      <c r="D147" s="204"/>
+      <c r="E147" s="205"/>
     </row>
     <row r="149" spans="1:5" ht="18" customHeight="1">
-      <c r="A149" s="182" t="s">
+      <c r="A149" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B149" s="183"/>
+      <c r="B149" s="191"/>
       <c r="C149" s="14" t="s">
         <v>281</v>
       </c>
@@ -6028,2278 +6139,2418 @@
         <v>11</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="18" customHeight="1">
-      <c r="A150" s="182" t="s">
+      <c r="A150" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="B150" s="203"/>
-      <c r="C150" s="184" t="s">
-        <v>75</v>
-      </c>
-      <c r="D150" s="185"/>
-      <c r="E150" s="186"/>
+      <c r="B150" s="211"/>
+      <c r="C150" s="192" t="s">
+        <v>72</v>
+      </c>
+      <c r="D150" s="193"/>
+      <c r="E150" s="194"/>
     </row>
     <row r="151" spans="1:5" ht="18" customHeight="1">
-      <c r="A151" s="205" t="s">
+      <c r="A151" s="212" t="s">
         <v>17</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" s="190" t="s">
-        <v>282</v>
-      </c>
-      <c r="D151" s="190"/>
-      <c r="E151" s="190"/>
+        <v>13</v>
+      </c>
+      <c r="C151" s="199" t="s">
+        <v>73</v>
+      </c>
+      <c r="D151" s="199"/>
+      <c r="E151" s="199"/>
     </row>
     <row r="152" spans="1:5" ht="18" customHeight="1">
-      <c r="A152" s="188"/>
-      <c r="B152" s="20" t="s">
+      <c r="A152" s="196"/>
+      <c r="B152" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C152" s="191" t="s">
+      <c r="C152" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="D152" s="192"/>
-      <c r="E152" s="193"/>
+      <c r="D152" s="201"/>
+      <c r="E152" s="202"/>
     </row>
     <row r="153" spans="1:5" ht="18" customHeight="1">
-      <c r="A153" s="188"/>
+      <c r="A153" s="196"/>
       <c r="B153" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C153" s="191"/>
-      <c r="D153" s="192"/>
-      <c r="E153" s="193"/>
+      <c r="C153" s="203"/>
+      <c r="D153" s="204"/>
+      <c r="E153" s="205"/>
     </row>
     <row r="154" spans="1:5" ht="18" customHeight="1">
-      <c r="A154" s="189"/>
+      <c r="A154" s="197"/>
       <c r="B154" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C154" s="194"/>
-      <c r="D154" s="195"/>
-      <c r="E154" s="196"/>
+      <c r="C154" s="203"/>
+      <c r="D154" s="204"/>
+      <c r="E154" s="205"/>
     </row>
     <row r="156" spans="1:5" ht="18" customHeight="1">
-      <c r="A156" s="112" t="s">
+      <c r="A156" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B156" s="118"/>
-      <c r="C156" s="8" t="s">
+      <c r="B156" s="191"/>
+      <c r="C156" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="18" customHeight="1">
+      <c r="A157" s="190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="211"/>
+      <c r="C157" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="D157" s="193"/>
+      <c r="E157" s="194"/>
+    </row>
+    <row r="158" spans="1:5" ht="18" customHeight="1">
+      <c r="A158" s="213" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="199" t="s">
+        <v>282</v>
+      </c>
+      <c r="D158" s="199"/>
+      <c r="E158" s="199"/>
+    </row>
+    <row r="159" spans="1:5" ht="18" customHeight="1">
+      <c r="A159" s="196"/>
+      <c r="B159" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="200" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="201"/>
+      <c r="E159" s="202"/>
+    </row>
+    <row r="160" spans="1:5" ht="18" customHeight="1">
+      <c r="A160" s="196"/>
+      <c r="B160" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" s="200"/>
+      <c r="D160" s="201"/>
+      <c r="E160" s="202"/>
+    </row>
+    <row r="161" spans="1:5" ht="18" customHeight="1">
+      <c r="A161" s="197"/>
+      <c r="B161" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="203"/>
+      <c r="D161" s="204"/>
+      <c r="E161" s="205"/>
+    </row>
+    <row r="163" spans="1:5" ht="18" customHeight="1">
+      <c r="A163" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" s="123"/>
+      <c r="C163" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D163" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E156" s="10" t="s">
+      <c r="E163" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="18" customHeight="1">
-      <c r="A157" s="112" t="s">
+    <row r="164" spans="1:5" ht="18" customHeight="1">
+      <c r="A164" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B157" s="118"/>
-      <c r="C157" s="119" t="s">
+      <c r="B164" s="123"/>
+      <c r="C164" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="D157" s="120"/>
-      <c r="E157" s="121"/>
-    </row>
-    <row r="158" spans="1:5" ht="18" customHeight="1">
-      <c r="A158" s="102" t="s">
+      <c r="D164" s="132"/>
+      <c r="E164" s="133"/>
+    </row>
+    <row r="165" spans="1:5" ht="18" customHeight="1">
+      <c r="A165" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B158" s="105" t="s">
+      <c r="B165" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C158" s="108" t="s">
+      <c r="C165" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="D158" s="108"/>
-      <c r="E158" s="108"/>
-    </row>
-    <row r="159" spans="1:5" ht="18" customHeight="1">
-      <c r="A159" s="103"/>
-      <c r="B159" s="106"/>
-      <c r="C159" s="108" t="s">
+      <c r="D165" s="113"/>
+      <c r="E165" s="113"/>
+    </row>
+    <row r="166" spans="1:5" ht="18" customHeight="1">
+      <c r="A166" s="107"/>
+      <c r="B166" s="110"/>
+      <c r="C166" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="D159" s="108"/>
-      <c r="E159" s="108"/>
-    </row>
-    <row r="160" spans="1:5" ht="18" customHeight="1">
-      <c r="A160" s="103"/>
-      <c r="B160" s="106"/>
-      <c r="C160" s="108" t="s">
+      <c r="D166" s="113"/>
+      <c r="E166" s="113"/>
+    </row>
+    <row r="167" spans="1:5" ht="18" customHeight="1">
+      <c r="A167" s="107"/>
+      <c r="B167" s="110"/>
+      <c r="C167" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="D160" s="108"/>
-      <c r="E160" s="108"/>
-    </row>
-    <row r="161" spans="1:5" ht="18" customHeight="1">
-      <c r="A161" s="103"/>
-      <c r="B161" s="106"/>
-      <c r="C161" s="108" t="s">
+      <c r="D167" s="113"/>
+      <c r="E167" s="113"/>
+    </row>
+    <row r="168" spans="1:5" ht="18" customHeight="1">
+      <c r="A168" s="107"/>
+      <c r="B168" s="110"/>
+      <c r="C168" s="113" t="s">
         <v>354</v>
       </c>
-      <c r="D161" s="108"/>
-      <c r="E161" s="108"/>
-    </row>
-    <row r="162" spans="1:5" ht="18" customHeight="1">
-      <c r="A162" s="103"/>
-      <c r="B162" s="161"/>
-      <c r="C162" s="108" t="s">
+      <c r="D168" s="113"/>
+      <c r="E168" s="113"/>
+    </row>
+    <row r="169" spans="1:5" ht="18" customHeight="1">
+      <c r="A169" s="107"/>
+      <c r="B169" s="173"/>
+      <c r="C169" s="113" t="s">
         <v>355</v>
       </c>
-      <c r="D162" s="108"/>
-      <c r="E162" s="108"/>
-    </row>
-    <row r="163" spans="1:5" ht="18" customHeight="1">
-      <c r="A163" s="103"/>
-      <c r="B163" s="11" t="s">
+      <c r="D169" s="113"/>
+      <c r="E169" s="113"/>
+    </row>
+    <row r="170" spans="1:5" ht="18" customHeight="1">
+      <c r="A170" s="107"/>
+      <c r="B170" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C163" s="109" t="s">
+      <c r="C170" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="D163" s="110"/>
-      <c r="E163" s="111"/>
-    </row>
-    <row r="164" spans="1:5" ht="18" customHeight="1">
-      <c r="A164" s="103"/>
-      <c r="B164" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C164" s="115"/>
-      <c r="D164" s="116"/>
-      <c r="E164" s="117"/>
-    </row>
-    <row r="165" spans="1:5" ht="18" customHeight="1">
-      <c r="A165" s="104"/>
-      <c r="B165" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C165" s="115"/>
-      <c r="D165" s="116"/>
-      <c r="E165" s="117"/>
-    </row>
-    <row r="167" spans="1:5" ht="18" customHeight="1">
-      <c r="A167" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="B167" s="118"/>
-      <c r="C167" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E167" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="18" customHeight="1">
-      <c r="A168" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B168" s="114"/>
-      <c r="C168" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="D168" s="120"/>
-      <c r="E168" s="121"/>
-    </row>
-    <row r="169" spans="1:5" ht="18" customHeight="1">
-      <c r="A169" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" s="108" t="s">
-        <v>316</v>
-      </c>
-      <c r="D169" s="108"/>
-      <c r="E169" s="108"/>
-    </row>
-    <row r="170" spans="1:5" ht="18" customHeight="1">
-      <c r="A170" s="103"/>
-      <c r="B170" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C170" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="D170" s="110"/>
-      <c r="E170" s="111"/>
+      <c r="D170" s="115"/>
+      <c r="E170" s="116"/>
     </row>
     <row r="171" spans="1:5" ht="18" customHeight="1">
-      <c r="A171" s="103"/>
+      <c r="A171" s="107"/>
       <c r="B171" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C171" s="109"/>
-      <c r="D171" s="110"/>
-      <c r="E171" s="111"/>
+      <c r="C171" s="120"/>
+      <c r="D171" s="121"/>
+      <c r="E171" s="122"/>
     </row>
     <row r="172" spans="1:5" ht="18" customHeight="1">
-      <c r="A172" s="104"/>
+      <c r="A172" s="108"/>
       <c r="B172" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C172" s="115"/>
-      <c r="D172" s="116"/>
-      <c r="E172" s="117"/>
+      <c r="C172" s="120"/>
+      <c r="D172" s="121"/>
+      <c r="E172" s="122"/>
     </row>
     <row r="174" spans="1:5" ht="18" customHeight="1">
-      <c r="A174" s="112" t="s">
+      <c r="A174" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B174" s="118"/>
+      <c r="B174" s="123"/>
       <c r="C174" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D174" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>216</v>
+        <v>135</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="18" customHeight="1">
-      <c r="A175" s="105" t="s">
+      <c r="A175" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B175" s="114"/>
-      <c r="C175" s="151" t="s">
-        <v>217</v>
-      </c>
-      <c r="D175" s="152"/>
-      <c r="E175" s="160"/>
+      <c r="B175" s="119"/>
+      <c r="C175" s="131" t="s">
+        <v>114</v>
+      </c>
+      <c r="D175" s="132"/>
+      <c r="E175" s="133"/>
     </row>
     <row r="176" spans="1:5" ht="18" customHeight="1">
-      <c r="A176" s="105" t="s">
+      <c r="A176" s="110" t="s">
         <v>17</v>
       </c>
       <c r="B176" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C176" s="108" t="s">
+      <c r="C176" s="113" t="s">
+        <v>316</v>
+      </c>
+      <c r="D176" s="113"/>
+      <c r="E176" s="113"/>
+    </row>
+    <row r="177" spans="1:5" ht="18" customHeight="1">
+      <c r="A177" s="107"/>
+      <c r="B177" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="D177" s="115"/>
+      <c r="E177" s="116"/>
+    </row>
+    <row r="178" spans="1:5" ht="18" customHeight="1">
+      <c r="A178" s="107"/>
+      <c r="B178" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="114"/>
+      <c r="D178" s="115"/>
+      <c r="E178" s="116"/>
+    </row>
+    <row r="179" spans="1:5" ht="18" customHeight="1">
+      <c r="A179" s="108"/>
+      <c r="B179" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="120"/>
+      <c r="D179" s="121"/>
+      <c r="E179" s="122"/>
+    </row>
+    <row r="181" spans="1:5" ht="18" customHeight="1">
+      <c r="A181" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="123"/>
+      <c r="C181" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="18" customHeight="1">
+      <c r="A182" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="119"/>
+      <c r="C182" s="165" t="s">
+        <v>217</v>
+      </c>
+      <c r="D182" s="129"/>
+      <c r="E182" s="172"/>
+    </row>
+    <row r="183" spans="1:5" ht="18" customHeight="1">
+      <c r="A183" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" s="113" t="s">
         <v>317</v>
       </c>
-      <c r="D176" s="108"/>
-      <c r="E176" s="108"/>
-    </row>
-    <row r="177" spans="1:5" ht="18" customHeight="1">
-      <c r="A177" s="106"/>
-      <c r="B177" s="12" t="s">
+      <c r="D183" s="113"/>
+      <c r="E183" s="113"/>
+    </row>
+    <row r="184" spans="1:5" ht="18" customHeight="1">
+      <c r="A184" s="110"/>
+      <c r="B184" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C177" s="108" t="s">
+      <c r="C184" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="D177" s="108"/>
-      <c r="E177" s="108"/>
-    </row>
-    <row r="178" spans="1:5" ht="18" customHeight="1">
-      <c r="A178" s="106"/>
-      <c r="B178" s="12" t="s">
+      <c r="D184" s="113"/>
+      <c r="E184" s="113"/>
+    </row>
+    <row r="185" spans="1:5" ht="18" customHeight="1">
+      <c r="A185" s="110"/>
+      <c r="B185" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C178" s="108" t="s">
+      <c r="C185" s="113" t="s">
         <v>243</v>
       </c>
-      <c r="D178" s="108"/>
-      <c r="E178" s="108"/>
-    </row>
-    <row r="179" spans="1:5" ht="18" customHeight="1">
-      <c r="A179" s="161"/>
-      <c r="B179" s="12" t="s">
+      <c r="D185" s="113"/>
+      <c r="E185" s="113"/>
+    </row>
+    <row r="186" spans="1:5" ht="18" customHeight="1">
+      <c r="A186" s="173"/>
+      <c r="B186" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C179" s="108"/>
-      <c r="D179" s="108"/>
-      <c r="E179" s="108"/>
-    </row>
-    <row r="181" spans="1:5" ht="18" customHeight="1">
-      <c r="A181" s="112" t="s">
+      <c r="C186" s="113"/>
+      <c r="D186" s="113"/>
+      <c r="E186" s="113"/>
+    </row>
+    <row r="188" spans="1:5" ht="18" customHeight="1">
+      <c r="A188" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B181" s="118"/>
-      <c r="C181" s="8" t="s">
+      <c r="B188" s="123"/>
+      <c r="C188" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D188" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E181" s="10" t="s">
+      <c r="E188" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="18" customHeight="1">
-      <c r="A182" s="112" t="s">
+    <row r="189" spans="1:5" ht="18" customHeight="1">
+      <c r="A189" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B182" s="118"/>
-      <c r="C182" s="151" t="s">
+      <c r="B189" s="123"/>
+      <c r="C189" s="165" t="s">
         <v>318</v>
       </c>
-      <c r="D182" s="152"/>
-      <c r="E182" s="153"/>
-    </row>
-    <row r="183" spans="1:5" ht="18" customHeight="1">
-      <c r="A183" s="102" t="s">
+      <c r="D189" s="129"/>
+      <c r="E189" s="130"/>
+    </row>
+    <row r="190" spans="1:5" ht="18" customHeight="1">
+      <c r="A190" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B183" s="154" t="s">
+      <c r="B190" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="C183" s="108" t="s">
+      <c r="C190" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="D183" s="108"/>
-      <c r="E183" s="108"/>
-    </row>
-    <row r="184" spans="1:5" ht="18" customHeight="1">
-      <c r="A184" s="103"/>
-      <c r="B184" s="155"/>
-      <c r="C184" s="108" t="s">
+      <c r="D190" s="113"/>
+      <c r="E190" s="113"/>
+    </row>
+    <row r="191" spans="1:5" ht="18" customHeight="1">
+      <c r="A191" s="107"/>
+      <c r="B191" s="167"/>
+      <c r="C191" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="D184" s="108"/>
-      <c r="E184" s="108"/>
-    </row>
-    <row r="185" spans="1:5" ht="18" customHeight="1">
-      <c r="A185" s="103"/>
-      <c r="B185" s="155"/>
-      <c r="C185" s="146" t="s">
+      <c r="D191" s="113"/>
+      <c r="E191" s="113"/>
+    </row>
+    <row r="192" spans="1:5" ht="18" customHeight="1">
+      <c r="A192" s="107"/>
+      <c r="B192" s="167"/>
+      <c r="C192" s="134" t="s">
         <v>143</v>
       </c>
-      <c r="D185" s="147"/>
-      <c r="E185" s="148"/>
-    </row>
-    <row r="186" spans="1:5" ht="18" customHeight="1">
-      <c r="A186" s="103"/>
-      <c r="B186" s="156"/>
-      <c r="C186" s="108" t="s">
+      <c r="D192" s="135"/>
+      <c r="E192" s="136"/>
+    </row>
+    <row r="193" spans="1:5" ht="18" customHeight="1">
+      <c r="A193" s="107"/>
+      <c r="B193" s="168"/>
+      <c r="C193" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="D186" s="108"/>
-      <c r="E186" s="108"/>
-    </row>
-    <row r="187" spans="1:5" ht="18" customHeight="1">
-      <c r="A187" s="103"/>
-      <c r="B187" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C187" s="157" t="s">
-        <v>110</v>
-      </c>
-      <c r="D187" s="158"/>
-      <c r="E187" s="159"/>
-    </row>
-    <row r="188" spans="1:5" ht="18" customHeight="1">
-      <c r="A188" s="103"/>
-      <c r="B188" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C188" s="115"/>
-      <c r="D188" s="116"/>
-      <c r="E188" s="117"/>
-    </row>
-    <row r="189" spans="1:5" ht="18" customHeight="1">
-      <c r="A189" s="104"/>
-      <c r="B189" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C189" s="115"/>
-      <c r="D189" s="116"/>
-      <c r="E189" s="117"/>
-    </row>
-    <row r="191" spans="1:5" ht="18" customHeight="1">
-      <c r="A191" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="B191" s="118"/>
-      <c r="C191" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D191" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E191" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="18" customHeight="1">
-      <c r="A192" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B192" s="114"/>
-      <c r="C192" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="D192" s="120"/>
-      <c r="E192" s="121"/>
-    </row>
-    <row r="193" spans="1:8" ht="18" customHeight="1">
-      <c r="A193" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="B193" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="D193" s="108"/>
-      <c r="E193" s="108"/>
-    </row>
-    <row r="194" spans="1:8" ht="18" customHeight="1">
-      <c r="A194" s="103"/>
+      <c r="D193" s="113"/>
+      <c r="E193" s="113"/>
+    </row>
+    <row r="194" spans="1:5" ht="18" customHeight="1">
+      <c r="A194" s="107"/>
       <c r="B194" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C194" s="109" t="s">
+      <c r="C194" s="169" t="s">
         <v>110</v>
       </c>
-      <c r="D194" s="110"/>
-      <c r="E194" s="111"/>
-    </row>
-    <row r="195" spans="1:8" ht="18" customHeight="1">
-      <c r="A195" s="103"/>
+      <c r="D194" s="170"/>
+      <c r="E194" s="171"/>
+    </row>
+    <row r="195" spans="1:5" ht="18" customHeight="1">
+      <c r="A195" s="107"/>
       <c r="B195" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C195" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="D195" s="116"/>
-      <c r="E195" s="117"/>
-    </row>
-    <row r="196" spans="1:8" ht="18" customHeight="1">
-      <c r="A196" s="104"/>
+      <c r="C195" s="120"/>
+      <c r="D195" s="121"/>
+      <c r="E195" s="122"/>
+    </row>
+    <row r="196" spans="1:5" ht="18" customHeight="1">
+      <c r="A196" s="108"/>
       <c r="B196" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C196" s="115"/>
-      <c r="D196" s="116"/>
-      <c r="E196" s="117"/>
-    </row>
-    <row r="198" spans="1:8" ht="18" customHeight="1">
-      <c r="A198" s="149" t="s">
+      <c r="C196" s="120"/>
+      <c r="D196" s="121"/>
+      <c r="E196" s="122"/>
+    </row>
+    <row r="198" spans="1:5" ht="18" customHeight="1">
+      <c r="A198" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B198" s="150"/>
-      <c r="C198" s="23" t="s">
+      <c r="B198" s="123"/>
+      <c r="C198" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="18" customHeight="1">
+      <c r="A199" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" s="119"/>
+      <c r="C199" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="D199" s="132"/>
+      <c r="E199" s="133"/>
+    </row>
+    <row r="200" spans="1:5" ht="18" customHeight="1">
+      <c r="A200" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="D200" s="113"/>
+      <c r="E200" s="113"/>
+    </row>
+    <row r="201" spans="1:5" ht="18" customHeight="1">
+      <c r="A201" s="107"/>
+      <c r="B201" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="D201" s="115"/>
+      <c r="E201" s="116"/>
+    </row>
+    <row r="202" spans="1:5" ht="18" customHeight="1">
+      <c r="A202" s="107"/>
+      <c r="B202" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="D202" s="121"/>
+      <c r="E202" s="122"/>
+    </row>
+    <row r="203" spans="1:5" ht="18" customHeight="1">
+      <c r="A203" s="108"/>
+      <c r="B203" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="120"/>
+      <c r="D203" s="121"/>
+      <c r="E203" s="122"/>
+    </row>
+    <row r="205" spans="1:5" ht="18" customHeight="1">
+      <c r="A205" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" s="164"/>
+      <c r="C205" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D198" s="24" t="s">
+      <c r="D205" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E198" s="25" t="s">
+      <c r="E205" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="18" customHeight="1">
-      <c r="A199" s="140" t="s">
+    <row r="206" spans="1:5" ht="18" customHeight="1">
+      <c r="A206" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="B199" s="141"/>
-      <c r="C199" s="119" t="s">
+      <c r="B206" s="158"/>
+      <c r="C206" s="131" t="s">
         <v>353</v>
       </c>
-      <c r="D199" s="120"/>
-      <c r="E199" s="121"/>
-    </row>
-    <row r="200" spans="1:8" ht="18" customHeight="1">
-      <c r="A200" s="140" t="s">
+      <c r="D206" s="132"/>
+      <c r="E206" s="133"/>
+    </row>
+    <row r="207" spans="1:5" ht="18" customHeight="1">
+      <c r="A207" s="157" t="s">
         <v>140</v>
       </c>
-      <c r="B200" s="145" t="s">
+      <c r="B207" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="C200" s="146" t="s">
+      <c r="C207" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="D200" s="147"/>
-      <c r="E200" s="148"/>
-    </row>
-    <row r="201" spans="1:8" ht="18" customHeight="1">
-      <c r="A201" s="142"/>
-      <c r="B201" s="145"/>
-      <c r="C201" s="146" t="s">
+      <c r="D207" s="135"/>
+      <c r="E207" s="136"/>
+    </row>
+    <row r="208" spans="1:5" ht="18" customHeight="1">
+      <c r="A208" s="159"/>
+      <c r="B208" s="162"/>
+      <c r="C208" s="134" t="s">
         <v>356</v>
       </c>
-      <c r="D201" s="147"/>
-      <c r="E201" s="148"/>
-    </row>
-    <row r="202" spans="1:8" ht="18" customHeight="1">
-      <c r="A202" s="142"/>
-      <c r="B202" s="145"/>
-      <c r="C202" s="108" t="s">
+      <c r="D208" s="135"/>
+      <c r="E208" s="136"/>
+    </row>
+    <row r="209" spans="1:8" ht="18" customHeight="1">
+      <c r="A209" s="159"/>
+      <c r="B209" s="162"/>
+      <c r="C209" s="113" t="s">
         <v>357</v>
       </c>
-      <c r="D202" s="108"/>
-      <c r="E202" s="108"/>
-    </row>
-    <row r="203" spans="1:8" ht="18" customHeight="1">
-      <c r="A203" s="143"/>
-      <c r="B203" s="26" t="s">
+      <c r="D209" s="113"/>
+      <c r="E209" s="113"/>
+    </row>
+    <row r="210" spans="1:8" ht="18" customHeight="1">
+      <c r="A210" s="160"/>
+      <c r="B210" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C203" s="109" t="s">
+      <c r="C210" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="D203" s="110"/>
-      <c r="E203" s="111"/>
-    </row>
-    <row r="204" spans="1:8" ht="18" customHeight="1">
-      <c r="A204" s="143"/>
-      <c r="B204" s="26" t="s">
+      <c r="D210" s="115"/>
+      <c r="E210" s="116"/>
+    </row>
+    <row r="211" spans="1:8" ht="18" customHeight="1">
+      <c r="A211" s="160"/>
+      <c r="B211" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C204" s="115"/>
-      <c r="D204" s="116"/>
-      <c r="E204" s="117"/>
-    </row>
-    <row r="205" spans="1:8" ht="18" customHeight="1">
-      <c r="A205" s="144"/>
-      <c r="B205" s="26" t="s">
+      <c r="C211" s="120"/>
+      <c r="D211" s="121"/>
+      <c r="E211" s="122"/>
+    </row>
+    <row r="212" spans="1:8" ht="18" customHeight="1">
+      <c r="A212" s="161"/>
+      <c r="B212" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C205" s="115"/>
-      <c r="D205" s="116"/>
-      <c r="E205" s="117"/>
-    </row>
-    <row r="206" spans="1:8" ht="18" customHeight="1">
-      <c r="F206" s="6"/>
-      <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
-    </row>
-    <row r="207" spans="1:8" ht="18" customHeight="1">
-      <c r="A207" s="123" t="s">
+      <c r="C212" s="120"/>
+      <c r="D212" s="121"/>
+      <c r="E212" s="122"/>
+    </row>
+    <row r="213" spans="1:8" ht="18" customHeight="1">
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+    </row>
+    <row r="214" spans="1:8" ht="18" customHeight="1">
+      <c r="A214" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B207" s="124"/>
-      <c r="C207" s="27" t="s">
+      <c r="B214" s="139"/>
+      <c r="C214" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D207" s="28" t="s">
+      <c r="D214" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E207" s="29" t="s">
+      <c r="E214" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="F207" s="206"/>
-      <c r="G207" s="206"/>
-      <c r="H207" s="206"/>
-    </row>
-    <row r="208" spans="1:8" ht="18" customHeight="1">
-      <c r="A208" s="123" t="s">
+      <c r="F214" s="147"/>
+      <c r="G214" s="147"/>
+      <c r="H214" s="147"/>
+    </row>
+    <row r="215" spans="1:8" ht="18" customHeight="1">
+      <c r="A215" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="B208" s="125"/>
-      <c r="C208" s="126" t="s">
+      <c r="B215" s="140"/>
+      <c r="C215" s="141" t="s">
         <v>218</v>
       </c>
-      <c r="D208" s="127"/>
-      <c r="E208" s="128"/>
-      <c r="F208" s="6"/>
-      <c r="G208" s="6"/>
-      <c r="H208" s="6"/>
-    </row>
-    <row r="209" spans="1:8" ht="18" customHeight="1">
-      <c r="A209" s="129" t="s">
+      <c r="D215" s="142"/>
+      <c r="E215" s="143"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+    </row>
+    <row r="216" spans="1:8" ht="18" customHeight="1">
+      <c r="A216" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="B209" s="30" t="s">
+      <c r="B216" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C209" s="207" t="s">
+      <c r="C216" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="D209" s="132"/>
-      <c r="E209" s="133"/>
-      <c r="F209" s="6"/>
-      <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
-    </row>
-    <row r="210" spans="1:8" ht="18" customHeight="1">
-      <c r="A210" s="130"/>
-      <c r="B210" s="31" t="s">
+      <c r="D216" s="149"/>
+      <c r="E216" s="150"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+    </row>
+    <row r="217" spans="1:8" ht="18" customHeight="1">
+      <c r="A217" s="145"/>
+      <c r="B217" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C210" s="134" t="s">
+      <c r="C217" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="D210" s="135"/>
-      <c r="E210" s="136"/>
-      <c r="F210" s="6"/>
-      <c r="G210" s="6"/>
-      <c r="H210" s="6"/>
-    </row>
-    <row r="211" spans="1:8" ht="18" customHeight="1">
-      <c r="A211" s="130"/>
-      <c r="B211" s="31" t="s">
+      <c r="D217" s="152"/>
+      <c r="E217" s="153"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+    </row>
+    <row r="218" spans="1:8" ht="18" customHeight="1">
+      <c r="A218" s="145"/>
+      <c r="B218" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C211" s="137"/>
-      <c r="D211" s="138"/>
-      <c r="E211" s="139"/>
-    </row>
-    <row r="212" spans="1:8" ht="18" customHeight="1">
-      <c r="A212" s="131"/>
-      <c r="B212" s="31" t="s">
+      <c r="C218" s="154"/>
+      <c r="D218" s="155"/>
+      <c r="E218" s="156"/>
+    </row>
+    <row r="219" spans="1:8" ht="18" customHeight="1">
+      <c r="A219" s="146"/>
+      <c r="B219" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="137"/>
-      <c r="D212" s="138"/>
-      <c r="E212" s="139"/>
-    </row>
-    <row r="214" spans="1:8" ht="18" customHeight="1">
-      <c r="A214" s="112" t="s">
+      <c r="C219" s="154"/>
+      <c r="D219" s="155"/>
+      <c r="E219" s="156"/>
+    </row>
+    <row r="221" spans="1:8" ht="18" customHeight="1">
+      <c r="A221" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B214" s="118"/>
-      <c r="C214" s="32" t="s">
+      <c r="B221" s="123"/>
+      <c r="C221" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D214" s="9" t="s">
+      <c r="D221" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E214" s="10" t="s">
+      <c r="E221" s="10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="18" customHeight="1">
-      <c r="A215" s="112" t="s">
+    <row r="222" spans="1:8" ht="18" customHeight="1">
+      <c r="A222" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B215" s="114"/>
-      <c r="C215" s="119" t="s">
+      <c r="B222" s="119"/>
+      <c r="C222" s="131" t="s">
         <v>320</v>
       </c>
-      <c r="D215" s="120"/>
-      <c r="E215" s="121"/>
-    </row>
-    <row r="216" spans="1:8" ht="18" customHeight="1">
-      <c r="A216" s="105" t="s">
+      <c r="D222" s="132"/>
+      <c r="E222" s="133"/>
+    </row>
+    <row r="223" spans="1:8" ht="18" customHeight="1">
+      <c r="A223" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B216" s="122" t="s">
+      <c r="B223" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C216" s="108" t="s">
+      <c r="C223" s="113" t="s">
         <v>321</v>
       </c>
-      <c r="D216" s="108"/>
-      <c r="E216" s="108"/>
-    </row>
-    <row r="217" spans="1:8" ht="18" customHeight="1">
-      <c r="A217" s="106"/>
-      <c r="B217" s="122"/>
-      <c r="C217" s="108" t="s">
+      <c r="D223" s="113"/>
+      <c r="E223" s="113"/>
+    </row>
+    <row r="224" spans="1:8" ht="18" customHeight="1">
+      <c r="A224" s="110"/>
+      <c r="B224" s="137"/>
+      <c r="C224" s="113" t="s">
         <v>322</v>
       </c>
-      <c r="D217" s="108"/>
-      <c r="E217" s="108"/>
-    </row>
-    <row r="218" spans="1:8" ht="18" customHeight="1">
-      <c r="A218" s="103"/>
-      <c r="B218" s="11" t="s">
+      <c r="D224" s="113"/>
+      <c r="E224" s="113"/>
+    </row>
+    <row r="225" spans="1:5" ht="18" customHeight="1">
+      <c r="A225" s="107"/>
+      <c r="B225" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C218" s="109" t="s">
+      <c r="C225" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="D218" s="110"/>
-      <c r="E218" s="111"/>
-    </row>
-    <row r="219" spans="1:8" ht="18" customHeight="1">
-      <c r="A219" s="103"/>
-      <c r="B219" s="11" t="s">
+      <c r="D225" s="115"/>
+      <c r="E225" s="116"/>
+    </row>
+    <row r="226" spans="1:5" ht="18" customHeight="1">
+      <c r="A226" s="107"/>
+      <c r="B226" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C219" s="115"/>
-      <c r="D219" s="116"/>
-      <c r="E219" s="117"/>
-    </row>
-    <row r="220" spans="1:8" ht="18" customHeight="1">
-      <c r="A220" s="104"/>
-      <c r="B220" s="11" t="s">
+      <c r="C226" s="120"/>
+      <c r="D226" s="121"/>
+      <c r="E226" s="122"/>
+    </row>
+    <row r="227" spans="1:5" ht="18" customHeight="1">
+      <c r="A227" s="108"/>
+      <c r="B227" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C220" s="115"/>
-      <c r="D220" s="116"/>
-      <c r="E220" s="117"/>
-    </row>
-    <row r="222" spans="1:8" ht="18" customHeight="1">
-      <c r="A222" s="112" t="s">
+      <c r="C227" s="120"/>
+      <c r="D227" s="121"/>
+      <c r="E227" s="122"/>
+    </row>
+    <row r="229" spans="1:5" ht="18" customHeight="1">
+      <c r="A229" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B222" s="118"/>
-      <c r="C222" s="32" t="s">
+      <c r="B229" s="123"/>
+      <c r="C229" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D222" s="9" t="s">
+      <c r="D229" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E222" s="10" t="s">
+      <c r="E229" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="18" customHeight="1">
-      <c r="A223" s="105" t="s">
+    <row r="230" spans="1:5" ht="18" customHeight="1">
+      <c r="A230" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B223" s="114"/>
-      <c r="C223" s="119" t="s">
+      <c r="B230" s="119"/>
+      <c r="C230" s="131" t="s">
         <v>323</v>
       </c>
-      <c r="D223" s="120"/>
-      <c r="E223" s="121"/>
-    </row>
-    <row r="224" spans="1:8" ht="18" customHeight="1">
-      <c r="A224" s="162" t="s">
+      <c r="D230" s="132"/>
+      <c r="E230" s="133"/>
+    </row>
+    <row r="231" spans="1:5" ht="18" customHeight="1">
+      <c r="A231" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="B224" s="162" t="s">
+      <c r="B231" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="C224" s="146" t="s">
+      <c r="C231" s="134" t="s">
         <v>343</v>
       </c>
-      <c r="D224" s="147"/>
-      <c r="E224" s="148"/>
-    </row>
-    <row r="225" spans="1:5" ht="18" customHeight="1">
-      <c r="A225" s="179"/>
-      <c r="B225" s="179"/>
-      <c r="C225" s="146" t="s">
+      <c r="D231" s="135"/>
+      <c r="E231" s="136"/>
+    </row>
+    <row r="232" spans="1:5" ht="18" customHeight="1">
+      <c r="A232" s="180"/>
+      <c r="B232" s="180"/>
+      <c r="C232" s="134" t="s">
         <v>344</v>
       </c>
-      <c r="D225" s="147"/>
-      <c r="E225" s="148"/>
-    </row>
-    <row r="226" spans="1:5" ht="18" customHeight="1">
-      <c r="A226" s="179"/>
-      <c r="B226" s="179"/>
-      <c r="C226" s="146" t="s">
+      <c r="D232" s="135"/>
+      <c r="E232" s="136"/>
+    </row>
+    <row r="233" spans="1:5" ht="18" customHeight="1">
+      <c r="A233" s="180"/>
+      <c r="B233" s="180"/>
+      <c r="C233" s="134" t="s">
         <v>345</v>
       </c>
-      <c r="D226" s="147"/>
-      <c r="E226" s="148"/>
-    </row>
-    <row r="227" spans="1:5" ht="18" customHeight="1">
-      <c r="A227" s="179"/>
-      <c r="B227" s="179"/>
-      <c r="C227" s="146" t="s">
+      <c r="D233" s="135"/>
+      <c r="E233" s="136"/>
+    </row>
+    <row r="234" spans="1:5" ht="18" customHeight="1">
+      <c r="A234" s="180"/>
+      <c r="B234" s="180"/>
+      <c r="C234" s="134" t="s">
         <v>346</v>
       </c>
-      <c r="D227" s="147"/>
-      <c r="E227" s="148"/>
-    </row>
-    <row r="228" spans="1:5" ht="18" customHeight="1">
-      <c r="A228" s="179"/>
-      <c r="B228" s="179"/>
-      <c r="C228" s="176" t="s">
+      <c r="D234" s="135"/>
+      <c r="E234" s="136"/>
+    </row>
+    <row r="235" spans="1:5" ht="18" customHeight="1">
+      <c r="A235" s="180"/>
+      <c r="B235" s="180"/>
+      <c r="C235" s="185" t="s">
         <v>347</v>
       </c>
-      <c r="D228" s="177"/>
-      <c r="E228" s="178"/>
-    </row>
-    <row r="229" spans="1:5" ht="18" customHeight="1">
-      <c r="A229" s="179"/>
-      <c r="B229" s="179"/>
-      <c r="C229" s="146" t="s">
+      <c r="D235" s="186"/>
+      <c r="E235" s="187"/>
+    </row>
+    <row r="236" spans="1:5" ht="18" customHeight="1">
+      <c r="A236" s="180"/>
+      <c r="B236" s="180"/>
+      <c r="C236" s="134" t="s">
         <v>348</v>
       </c>
-      <c r="D229" s="147"/>
-      <c r="E229" s="148"/>
-    </row>
-    <row r="230" spans="1:5" ht="18" customHeight="1">
-      <c r="A230" s="179"/>
-      <c r="B230" s="12" t="s">
+      <c r="D236" s="135"/>
+      <c r="E236" s="136"/>
+    </row>
+    <row r="237" spans="1:5" ht="18" customHeight="1">
+      <c r="A237" s="180"/>
+      <c r="B237" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C230" s="107" t="s">
+      <c r="C237" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="D230" s="108"/>
-      <c r="E230" s="108"/>
-    </row>
-    <row r="231" spans="1:5" ht="18" customHeight="1">
-      <c r="A231" s="179"/>
-      <c r="B231" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C231" s="109"/>
-      <c r="D231" s="110"/>
-      <c r="E231" s="111"/>
-    </row>
-    <row r="232" spans="1:5" ht="18" customHeight="1">
-      <c r="A232" s="163"/>
-      <c r="B232" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C232" s="115"/>
-      <c r="D232" s="116"/>
-      <c r="E232" s="117"/>
-    </row>
-    <row r="233" spans="1:5" ht="18" customHeight="1">
-      <c r="B233" s="13"/>
-      <c r="C233" s="168"/>
-      <c r="D233" s="168"/>
-      <c r="E233" s="168"/>
-    </row>
-    <row r="234" spans="1:5" ht="18" customHeight="1">
-      <c r="A234" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="B234" s="118"/>
-      <c r="C234" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E234" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="18" customHeight="1">
-      <c r="A235" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B235" s="114"/>
-      <c r="C235" s="169" t="s">
-        <v>230</v>
-      </c>
-      <c r="D235" s="170"/>
-      <c r="E235" s="171"/>
-    </row>
-    <row r="236" spans="1:5" ht="18" customHeight="1">
-      <c r="A236" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="B236" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C236" s="175" t="s">
-        <v>86</v>
-      </c>
-      <c r="D236" s="170"/>
-      <c r="E236" s="171"/>
-    </row>
-    <row r="237" spans="1:5" ht="18" customHeight="1">
-      <c r="A237" s="103"/>
-      <c r="B237" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C237" s="107" t="s">
-        <v>193</v>
-      </c>
-      <c r="D237" s="108"/>
-      <c r="E237" s="108"/>
+      <c r="D237" s="113"/>
+      <c r="E237" s="113"/>
     </row>
     <row r="238" spans="1:5" ht="18" customHeight="1">
-      <c r="A238" s="103"/>
+      <c r="A238" s="180"/>
       <c r="B238" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C238" s="109" t="s">
-        <v>253</v>
-      </c>
-      <c r="D238" s="110"/>
-      <c r="E238" s="111"/>
+      <c r="C238" s="114"/>
+      <c r="D238" s="115"/>
+      <c r="E238" s="116"/>
     </row>
     <row r="239" spans="1:5" ht="18" customHeight="1">
-      <c r="A239" s="104"/>
+      <c r="A239" s="175"/>
       <c r="B239" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C239" s="115"/>
-      <c r="D239" s="116"/>
-      <c r="E239" s="117"/>
+      <c r="C239" s="120"/>
+      <c r="D239" s="121"/>
+      <c r="E239" s="122"/>
     </row>
     <row r="240" spans="1:5" ht="18" customHeight="1">
       <c r="B240" s="13"/>
-      <c r="C240" s="168"/>
-      <c r="D240" s="168"/>
-      <c r="E240" s="168"/>
+      <c r="C240" s="124"/>
+      <c r="D240" s="124"/>
+      <c r="E240" s="124"/>
     </row>
     <row r="241" spans="1:5" ht="18" customHeight="1">
-      <c r="A241" s="112" t="s">
+      <c r="A241" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B241" s="118"/>
+      <c r="B241" s="123"/>
       <c r="C241" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E241" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="18" customHeight="1">
+      <c r="A242" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242" s="119"/>
+      <c r="C242" s="125" t="s">
+        <v>230</v>
+      </c>
+      <c r="D242" s="126"/>
+      <c r="E242" s="127"/>
+    </row>
+    <row r="243" spans="1:5" ht="18" customHeight="1">
+      <c r="A243" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B243" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" s="184" t="s">
+        <v>367</v>
+      </c>
+      <c r="D243" s="126"/>
+      <c r="E243" s="127"/>
+    </row>
+    <row r="244" spans="1:5" ht="18" customHeight="1">
+      <c r="A244" s="110"/>
+      <c r="B244" s="137"/>
+      <c r="C244" s="184" t="s">
+        <v>368</v>
+      </c>
+      <c r="D244" s="126"/>
+      <c r="E244" s="127"/>
+    </row>
+    <row r="245" spans="1:5" ht="18" customHeight="1">
+      <c r="A245" s="110"/>
+      <c r="B245" s="137"/>
+      <c r="C245" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="D245" s="126"/>
+      <c r="E245" s="127"/>
+    </row>
+    <row r="246" spans="1:5" ht="18" customHeight="1">
+      <c r="A246" s="110"/>
+      <c r="B246" s="137"/>
+      <c r="C246" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="D246" s="126"/>
+      <c r="E246" s="127"/>
+    </row>
+    <row r="247" spans="1:5" ht="18" customHeight="1">
+      <c r="A247" s="110"/>
+      <c r="B247" s="137"/>
+      <c r="C247" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="D247" s="126"/>
+      <c r="E247" s="127"/>
+    </row>
+    <row r="248" spans="1:5" ht="18" customHeight="1">
+      <c r="A248" s="110"/>
+      <c r="B248" s="137"/>
+      <c r="C248" s="184" t="s">
+        <v>372</v>
+      </c>
+      <c r="D248" s="126"/>
+      <c r="E248" s="127"/>
+    </row>
+    <row r="249" spans="1:5" ht="18" customHeight="1">
+      <c r="A249" s="110"/>
+      <c r="B249" s="137"/>
+      <c r="C249" s="184" t="s">
+        <v>373</v>
+      </c>
+      <c r="D249" s="126"/>
+      <c r="E249" s="127"/>
+    </row>
+    <row r="250" spans="1:5" ht="18" customHeight="1">
+      <c r="A250" s="110"/>
+      <c r="B250" s="137"/>
+      <c r="C250" s="184" t="s">
+        <v>374</v>
+      </c>
+      <c r="D250" s="126"/>
+      <c r="E250" s="127"/>
+    </row>
+    <row r="251" spans="1:5" ht="18" customHeight="1">
+      <c r="A251" s="110"/>
+      <c r="B251" s="137"/>
+      <c r="C251" s="184" t="s">
+        <v>375</v>
+      </c>
+      <c r="D251" s="126"/>
+      <c r="E251" s="127"/>
+    </row>
+    <row r="252" spans="1:5" ht="18" customHeight="1">
+      <c r="A252" s="107"/>
+      <c r="B252" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" s="214" t="s">
+        <v>193</v>
+      </c>
+      <c r="D252" s="128"/>
+      <c r="E252" s="215"/>
+    </row>
+    <row r="253" spans="1:5" ht="18" customHeight="1">
+      <c r="A253" s="107"/>
+      <c r="B253" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253" s="114" t="s">
+        <v>253</v>
+      </c>
+      <c r="D253" s="115"/>
+      <c r="E253" s="116"/>
+    </row>
+    <row r="254" spans="1:5" ht="18" customHeight="1">
+      <c r="A254" s="108"/>
+      <c r="B254" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254" s="120"/>
+      <c r="D254" s="121"/>
+      <c r="E254" s="122"/>
+    </row>
+    <row r="255" spans="1:5" ht="18" customHeight="1">
+      <c r="B255" s="13"/>
+      <c r="C255" s="124"/>
+      <c r="D255" s="124"/>
+      <c r="E255" s="124"/>
+    </row>
+    <row r="256" spans="1:5" ht="18" customHeight="1">
+      <c r="A256" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B256" s="123"/>
+      <c r="C256" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="18" customHeight="1">
-      <c r="A242" s="112" t="s">
+    <row r="257" spans="1:5" ht="18" customHeight="1">
+      <c r="A257" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B242" s="114"/>
-      <c r="C242" s="169" t="s">
+      <c r="B257" s="119"/>
+      <c r="C257" s="125" t="s">
         <v>324</v>
       </c>
-      <c r="D242" s="170"/>
-      <c r="E242" s="171"/>
-    </row>
-    <row r="243" spans="1:5" ht="18" customHeight="1">
-      <c r="A243" s="105" t="s">
+      <c r="D257" s="126"/>
+      <c r="E257" s="127"/>
+    </row>
+    <row r="258" spans="1:5" ht="18" customHeight="1">
+      <c r="A258" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B243" s="12" t="s">
+      <c r="B258" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C243" s="164" t="s">
+      <c r="C258" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="D243" s="120"/>
-      <c r="E243" s="121"/>
-    </row>
-    <row r="244" spans="1:5" ht="18" customHeight="1">
-      <c r="A244" s="103"/>
-      <c r="B244" s="11" t="s">
+      <c r="D258" s="132"/>
+      <c r="E258" s="133"/>
+    </row>
+    <row r="259" spans="1:5" ht="18" customHeight="1">
+      <c r="A259" s="107"/>
+      <c r="B259" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C244" s="107" t="s">
+      <c r="C259" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="D244" s="108"/>
-      <c r="E244" s="108"/>
-    </row>
-    <row r="245" spans="1:5" ht="18" customHeight="1">
-      <c r="A245" s="103"/>
-      <c r="B245" s="11" t="s">
+      <c r="D259" s="113"/>
+      <c r="E259" s="113"/>
+    </row>
+    <row r="260" spans="1:5" ht="18" customHeight="1">
+      <c r="A260" s="107"/>
+      <c r="B260" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C245" s="109"/>
-      <c r="D245" s="110"/>
-      <c r="E245" s="111"/>
-    </row>
-    <row r="246" spans="1:5" ht="18" customHeight="1">
-      <c r="A246" s="104"/>
-      <c r="B246" s="11" t="s">
+      <c r="C260" s="114"/>
+      <c r="D260" s="115"/>
+      <c r="E260" s="116"/>
+    </row>
+    <row r="261" spans="1:5" ht="18" customHeight="1">
+      <c r="A261" s="108"/>
+      <c r="B261" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C246" s="115" t="s">
+      <c r="C261" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="D246" s="116"/>
-      <c r="E246" s="117"/>
-    </row>
-    <row r="247" spans="1:5" ht="18" customHeight="1">
-      <c r="B247" s="13"/>
-      <c r="C247" s="168"/>
-      <c r="D247" s="168"/>
-      <c r="E247" s="168"/>
-    </row>
-    <row r="248" spans="1:5" ht="18" customHeight="1">
-      <c r="A248" s="112" t="s">
+      <c r="D261" s="121"/>
+      <c r="E261" s="122"/>
+    </row>
+    <row r="262" spans="1:5" ht="18" customHeight="1">
+      <c r="B262" s="13"/>
+      <c r="C262" s="124"/>
+      <c r="D262" s="124"/>
+      <c r="E262" s="124"/>
+    </row>
+    <row r="263" spans="1:5" ht="18" customHeight="1">
+      <c r="A263" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B248" s="118"/>
-      <c r="C248" s="32" t="s">
+      <c r="B263" s="123"/>
+      <c r="C263" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="D248" s="9" t="s">
+      <c r="D263" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E248" s="10" t="s">
+      <c r="E263" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="18" customHeight="1">
-      <c r="A249" s="112" t="s">
+    <row r="264" spans="1:5" ht="18" customHeight="1">
+      <c r="A264" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B249" s="114"/>
-      <c r="C249" s="172" t="s">
+      <c r="B264" s="119"/>
+      <c r="C264" s="181" t="s">
         <v>326</v>
       </c>
-      <c r="D249" s="173"/>
-      <c r="E249" s="174"/>
-    </row>
-    <row r="250" spans="1:5" ht="18" customHeight="1">
-      <c r="A250" s="105" t="s">
+      <c r="D264" s="182"/>
+      <c r="E264" s="183"/>
+    </row>
+    <row r="265" spans="1:5" ht="18" customHeight="1">
+      <c r="A265" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B250" s="12" t="s">
+      <c r="B265" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C250" s="108" t="s">
+      <c r="C265" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="D250" s="108"/>
-      <c r="E250" s="108"/>
-    </row>
-    <row r="251" spans="1:5" ht="18" customHeight="1">
-      <c r="A251" s="106"/>
-      <c r="B251" s="12" t="s">
+      <c r="D265" s="113"/>
+      <c r="E265" s="113"/>
+    </row>
+    <row r="266" spans="1:5" ht="18" customHeight="1">
+      <c r="A266" s="110"/>
+      <c r="B266" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C251" s="108" t="s">
+      <c r="C266" s="113" t="s">
         <v>154</v>
       </c>
-      <c r="D251" s="108"/>
-      <c r="E251" s="108"/>
-    </row>
-    <row r="252" spans="1:5" ht="18" customHeight="1">
-      <c r="A252" s="104"/>
-      <c r="B252" s="11" t="s">
+      <c r="D266" s="113"/>
+      <c r="E266" s="113"/>
+    </row>
+    <row r="267" spans="1:5" ht="18" customHeight="1">
+      <c r="A267" s="108"/>
+      <c r="B267" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C252" s="109"/>
-      <c r="D252" s="110"/>
-      <c r="E252" s="111"/>
-    </row>
-    <row r="253" spans="1:5" ht="18" customHeight="1">
-      <c r="B253" s="13"/>
-      <c r="C253" s="168"/>
-      <c r="D253" s="168"/>
-      <c r="E253" s="168"/>
-    </row>
-    <row r="254" spans="1:5" ht="18" customHeight="1">
-      <c r="A254" s="112" t="s">
+      <c r="C267" s="114"/>
+      <c r="D267" s="115"/>
+      <c r="E267" s="116"/>
+    </row>
+    <row r="268" spans="1:5" ht="18" customHeight="1">
+      <c r="B268" s="13"/>
+      <c r="C268" s="124"/>
+      <c r="D268" s="124"/>
+      <c r="E268" s="124"/>
+    </row>
+    <row r="269" spans="1:5" ht="18" customHeight="1">
+      <c r="A269" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B254" s="118"/>
-      <c r="C254" s="32" t="s">
+      <c r="B269" s="123"/>
+      <c r="C269" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D269" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E254" s="10" t="s">
+      <c r="E269" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="18" customHeight="1">
-      <c r="A255" s="112" t="s">
+    <row r="270" spans="1:5" ht="18" customHeight="1">
+      <c r="A270" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B255" s="114"/>
-      <c r="C255" s="169" t="s">
+      <c r="B270" s="119"/>
+      <c r="C270" s="125" t="s">
         <v>330</v>
       </c>
-      <c r="D255" s="170"/>
-      <c r="E255" s="171"/>
-    </row>
-    <row r="256" spans="1:5" ht="18" customHeight="1">
-      <c r="A256" s="105" t="s">
+      <c r="D270" s="126"/>
+      <c r="E270" s="127"/>
+    </row>
+    <row r="271" spans="1:5" ht="18" customHeight="1">
+      <c r="A271" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B256" s="122" t="s">
+      <c r="B271" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C256" s="120" t="s">
+      <c r="C271" s="132" t="s">
         <v>331</v>
       </c>
-      <c r="D256" s="120"/>
-      <c r="E256" s="121"/>
-    </row>
-    <row r="257" spans="1:5" ht="18" customHeight="1">
-      <c r="A257" s="106"/>
-      <c r="B257" s="122"/>
-      <c r="C257" s="148" t="s">
+      <c r="D271" s="132"/>
+      <c r="E271" s="133"/>
+    </row>
+    <row r="272" spans="1:5" ht="18" customHeight="1">
+      <c r="A272" s="110"/>
+      <c r="B272" s="137"/>
+      <c r="C272" s="136" t="s">
         <v>332</v>
       </c>
-      <c r="D257" s="108"/>
-      <c r="E257" s="108"/>
-    </row>
-    <row r="258" spans="1:5" ht="18" customHeight="1">
-      <c r="A258" s="103"/>
-      <c r="B258" s="11" t="s">
+      <c r="D272" s="113"/>
+      <c r="E272" s="113"/>
+    </row>
+    <row r="273" spans="1:5" ht="18" customHeight="1">
+      <c r="A273" s="107"/>
+      <c r="B273" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C258" s="107" t="s">
+      <c r="C273" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="D258" s="108"/>
-      <c r="E258" s="108"/>
-    </row>
-    <row r="259" spans="1:5" ht="18" customHeight="1">
-      <c r="A259" s="103"/>
-      <c r="B259" s="11" t="s">
+      <c r="D273" s="113"/>
+      <c r="E273" s="113"/>
+    </row>
+    <row r="274" spans="1:5" ht="18" customHeight="1">
+      <c r="A274" s="107"/>
+      <c r="B274" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C259" s="109"/>
-      <c r="D259" s="110"/>
-      <c r="E259" s="111"/>
-    </row>
-    <row r="260" spans="1:5" ht="18" customHeight="1">
-      <c r="A260" s="104"/>
-      <c r="B260" s="11" t="s">
+      <c r="C274" s="114"/>
+      <c r="D274" s="115"/>
+      <c r="E274" s="116"/>
+    </row>
+    <row r="275" spans="1:5" ht="18" customHeight="1">
+      <c r="A275" s="108"/>
+      <c r="B275" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C260" s="115"/>
-      <c r="D260" s="116"/>
-      <c r="E260" s="117"/>
-    </row>
-    <row r="261" spans="1:5" ht="18" customHeight="1">
-      <c r="B261" s="13"/>
-      <c r="C261" s="168"/>
-      <c r="D261" s="168"/>
-      <c r="E261" s="168"/>
-    </row>
-    <row r="262" spans="1:5" ht="18" customHeight="1">
-      <c r="A262" s="112" t="s">
+      <c r="C275" s="120"/>
+      <c r="D275" s="121"/>
+      <c r="E275" s="122"/>
+    </row>
+    <row r="276" spans="1:5" ht="18" customHeight="1">
+      <c r="B276" s="13"/>
+      <c r="C276" s="124"/>
+      <c r="D276" s="124"/>
+      <c r="E276" s="124"/>
+    </row>
+    <row r="277" spans="1:5" ht="18" customHeight="1">
+      <c r="A277" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B262" s="118"/>
-      <c r="C262" s="32" t="s">
+      <c r="B277" s="123"/>
+      <c r="C277" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="D262" s="9" t="s">
+      <c r="D277" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E262" s="10" t="s">
+      <c r="E277" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="18" customHeight="1">
-      <c r="A263" s="112" t="s">
+    <row r="278" spans="1:5" ht="18" customHeight="1">
+      <c r="A278" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B263" s="118"/>
-      <c r="C263" s="169" t="s">
+      <c r="B278" s="123"/>
+      <c r="C278" s="125" t="s">
         <v>335</v>
       </c>
-      <c r="D263" s="170"/>
-      <c r="E263" s="171"/>
-    </row>
-    <row r="264" spans="1:5" ht="18" customHeight="1">
-      <c r="A264" s="102" t="s">
+      <c r="D278" s="126"/>
+      <c r="E278" s="127"/>
+    </row>
+    <row r="279" spans="1:5" ht="18" customHeight="1">
+      <c r="A279" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B264" s="105" t="s">
+      <c r="B279" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C264" s="119" t="s">
+      <c r="C279" s="131" t="s">
         <v>336</v>
       </c>
-      <c r="D264" s="120"/>
-      <c r="E264" s="121"/>
-    </row>
-    <row r="265" spans="1:5" ht="18" customHeight="1">
-      <c r="A265" s="103"/>
-      <c r="B265" s="106"/>
-      <c r="C265" s="119" t="s">
+      <c r="D279" s="132"/>
+      <c r="E279" s="133"/>
+    </row>
+    <row r="280" spans="1:5" ht="18" customHeight="1">
+      <c r="A280" s="107"/>
+      <c r="B280" s="110"/>
+      <c r="C280" s="131" t="s">
         <v>358</v>
       </c>
-      <c r="D265" s="120"/>
-      <c r="E265" s="121"/>
-    </row>
-    <row r="266" spans="1:5" ht="18" customHeight="1">
-      <c r="A266" s="103"/>
-      <c r="B266" s="208"/>
-      <c r="C266" s="146" t="s">
+      <c r="D280" s="132"/>
+      <c r="E280" s="133"/>
+    </row>
+    <row r="281" spans="1:5" ht="18" customHeight="1">
+      <c r="A281" s="107"/>
+      <c r="B281" s="111"/>
+      <c r="C281" s="134" t="s">
         <v>332</v>
       </c>
-      <c r="D266" s="147"/>
-      <c r="E266" s="148"/>
-    </row>
-    <row r="267" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A267" s="103"/>
-      <c r="B267" s="12" t="s">
+      <c r="D281" s="135"/>
+      <c r="E281" s="136"/>
+    </row>
+    <row r="282" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A282" s="107"/>
+      <c r="B282" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C267" s="107" t="s">
+      <c r="C282" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="D267" s="108"/>
-      <c r="E267" s="108"/>
-    </row>
-    <row r="268" spans="1:5" ht="18" customHeight="1">
-      <c r="A268" s="103"/>
-      <c r="B268" s="11" t="s">
+      <c r="D282" s="113"/>
+      <c r="E282" s="113"/>
+    </row>
+    <row r="283" spans="1:5" ht="18" customHeight="1">
+      <c r="A283" s="107"/>
+      <c r="B283" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C268" s="109"/>
-      <c r="D268" s="110"/>
-      <c r="E268" s="111"/>
-    </row>
-    <row r="269" spans="1:5" ht="18" customHeight="1">
-      <c r="A269" s="104"/>
-      <c r="B269" s="11" t="s">
+      <c r="C283" s="114"/>
+      <c r="D283" s="115"/>
+      <c r="E283" s="116"/>
+    </row>
+    <row r="284" spans="1:5" ht="18" customHeight="1">
+      <c r="A284" s="108"/>
+      <c r="B284" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C269" s="115"/>
-      <c r="D269" s="116"/>
-      <c r="E269" s="117"/>
-    </row>
-    <row r="270" spans="1:5" ht="18" customHeight="1">
-      <c r="B270" s="13"/>
-      <c r="C270" s="168"/>
-      <c r="D270" s="168"/>
-      <c r="E270" s="168"/>
-    </row>
-    <row r="271" spans="1:5" ht="18" customHeight="1">
-      <c r="A271" s="112" t="s">
+      <c r="C284" s="120"/>
+      <c r="D284" s="121"/>
+      <c r="E284" s="122"/>
+    </row>
+    <row r="285" spans="1:5" ht="18" customHeight="1">
+      <c r="B285" s="13"/>
+      <c r="C285" s="124"/>
+      <c r="D285" s="124"/>
+      <c r="E285" s="124"/>
+    </row>
+    <row r="286" spans="1:5" ht="18" customHeight="1">
+      <c r="A286" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B271" s="113"/>
-      <c r="C271" s="32" t="s">
+      <c r="B286" s="118"/>
+      <c r="C286" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="D271" s="9" t="s">
+      <c r="D286" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E271" s="10" t="s">
+      <c r="E286" s="10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="18" customHeight="1">
-      <c r="A272" s="112" t="s">
+    <row r="287" spans="1:5" ht="18" customHeight="1">
+      <c r="A287" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B272" s="114"/>
-      <c r="C272" s="169" t="s">
+      <c r="B287" s="119"/>
+      <c r="C287" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="D272" s="170"/>
-      <c r="E272" s="171"/>
-    </row>
-    <row r="273" spans="1:5" ht="18" customHeight="1">
-      <c r="A273" s="105" t="s">
+      <c r="D287" s="126"/>
+      <c r="E287" s="127"/>
+    </row>
+    <row r="288" spans="1:5" ht="18" customHeight="1">
+      <c r="A288" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B273" s="12" t="s">
+      <c r="B288" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C273" s="209" t="s">
+      <c r="C288" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="D273" s="152"/>
-      <c r="E273" s="153"/>
-    </row>
-    <row r="274" spans="1:5" ht="18" customHeight="1">
-      <c r="A274" s="103"/>
-      <c r="B274" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C274" s="165" t="s">
-        <v>188</v>
-      </c>
-      <c r="D274" s="166"/>
-      <c r="E274" s="167"/>
-    </row>
-    <row r="275" spans="1:5" ht="18" customHeight="1">
-      <c r="A275" s="103"/>
-      <c r="B275" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C275" s="157" t="s">
-        <v>340</v>
-      </c>
-      <c r="D275" s="158"/>
-      <c r="E275" s="159"/>
-    </row>
-    <row r="276" spans="1:5" ht="18" customHeight="1">
-      <c r="A276" s="104"/>
-      <c r="B276" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C276" s="115"/>
-      <c r="D276" s="116"/>
-      <c r="E276" s="117"/>
-    </row>
-    <row r="277" spans="1:5" ht="18" customHeight="1">
-      <c r="B277" s="13"/>
-      <c r="C277" s="168"/>
-      <c r="D277" s="168"/>
-      <c r="E277" s="168"/>
-    </row>
-    <row r="278" spans="1:5" ht="18" customHeight="1">
-      <c r="A278" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="B278" s="118"/>
-      <c r="C278" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D278" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E278" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="18" customHeight="1">
-      <c r="A279" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B279" s="114"/>
-      <c r="C279" s="169" t="s">
-        <v>341</v>
-      </c>
-      <c r="D279" s="170"/>
-      <c r="E279" s="171"/>
-    </row>
-    <row r="280" spans="1:5" ht="18" customHeight="1">
-      <c r="A280" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="B280" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C280" s="164" t="s">
-        <v>86</v>
-      </c>
-      <c r="D280" s="120"/>
-      <c r="E280" s="121"/>
-    </row>
-    <row r="281" spans="1:5" ht="18" customHeight="1">
-      <c r="A281" s="103"/>
-      <c r="B281" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C281" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="D281" s="108"/>
-      <c r="E281" s="108"/>
-    </row>
-    <row r="282" spans="1:5" ht="18" customHeight="1">
-      <c r="A282" s="103"/>
-      <c r="B282" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C282" s="109" t="s">
-        <v>154</v>
-      </c>
-      <c r="D282" s="110"/>
-      <c r="E282" s="111"/>
-    </row>
-    <row r="283" spans="1:5" ht="18" customHeight="1">
-      <c r="A283" s="104"/>
-      <c r="B283" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C283" s="115" t="s">
-        <v>342</v>
-      </c>
-      <c r="D283" s="116"/>
-      <c r="E283" s="117"/>
-    </row>
-    <row r="285" spans="1:5" ht="18" customHeight="1">
-      <c r="A285" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="B285" s="118"/>
-      <c r="C285" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D285" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E285" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="18" customHeight="1">
-      <c r="A286" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B286" s="114"/>
-      <c r="C286" s="119" t="s">
-        <v>169</v>
-      </c>
-      <c r="D286" s="120"/>
-      <c r="E286" s="121"/>
-    </row>
-    <row r="287" spans="1:5" ht="18" customHeight="1">
-      <c r="A287" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="B287" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="C287" s="108" t="s">
-        <v>187</v>
-      </c>
-      <c r="D287" s="108"/>
-      <c r="E287" s="108"/>
-    </row>
-    <row r="288" spans="1:5" ht="18" customHeight="1">
-      <c r="A288" s="106"/>
-      <c r="B288" s="122"/>
-      <c r="C288" s="108" t="s">
-        <v>249</v>
-      </c>
-      <c r="D288" s="108"/>
-      <c r="E288" s="108"/>
+      <c r="D288" s="129"/>
+      <c r="E288" s="130"/>
     </row>
     <row r="289" spans="1:5" ht="18" customHeight="1">
-      <c r="A289" s="103"/>
+      <c r="A289" s="107"/>
       <c r="B289" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C289" s="109" t="s">
+      <c r="C289" s="177" t="s">
         <v>188</v>
       </c>
-      <c r="D289" s="110"/>
-      <c r="E289" s="111"/>
+      <c r="D289" s="178"/>
+      <c r="E289" s="179"/>
     </row>
     <row r="290" spans="1:5" ht="18" customHeight="1">
-      <c r="A290" s="103"/>
+      <c r="A290" s="107"/>
       <c r="B290" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C290" s="115" t="s">
-        <v>253</v>
-      </c>
-      <c r="D290" s="116"/>
-      <c r="E290" s="117"/>
+      <c r="C290" s="169" t="s">
+        <v>340</v>
+      </c>
+      <c r="D290" s="170"/>
+      <c r="E290" s="171"/>
     </row>
     <row r="291" spans="1:5" ht="18" customHeight="1">
-      <c r="A291" s="104"/>
+      <c r="A291" s="108"/>
       <c r="B291" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C291" s="115" t="s">
-        <v>148</v>
-      </c>
-      <c r="D291" s="116"/>
-      <c r="E291" s="117"/>
+      <c r="C291" s="120"/>
+      <c r="D291" s="121"/>
+      <c r="E291" s="122"/>
+    </row>
+    <row r="292" spans="1:5" ht="18" customHeight="1">
+      <c r="B292" s="13"/>
+      <c r="C292" s="124"/>
+      <c r="D292" s="124"/>
+      <c r="E292" s="124"/>
     </row>
     <row r="293" spans="1:5" ht="18" customHeight="1">
-      <c r="A293" s="112" t="s">
+      <c r="A293" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B293" s="118"/>
-      <c r="C293" s="8" t="s">
-        <v>170</v>
+      <c r="B293" s="123"/>
+      <c r="C293" s="32" t="s">
+        <v>231</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E293" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="18" customHeight="1">
+      <c r="A294" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B294" s="119"/>
+      <c r="C294" s="125" t="s">
+        <v>341</v>
+      </c>
+      <c r="D294" s="126"/>
+      <c r="E294" s="127"/>
+    </row>
+    <row r="295" spans="1:5" ht="18" customHeight="1">
+      <c r="A295" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295" s="176" t="s">
+        <v>86</v>
+      </c>
+      <c r="D295" s="132"/>
+      <c r="E295" s="133"/>
+    </row>
+    <row r="296" spans="1:5" ht="18" customHeight="1">
+      <c r="A296" s="107"/>
+      <c r="B296" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="D296" s="113"/>
+      <c r="E296" s="113"/>
+    </row>
+    <row r="297" spans="1:5" ht="18" customHeight="1">
+      <c r="A297" s="107"/>
+      <c r="B297" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="D297" s="115"/>
+      <c r="E297" s="116"/>
+    </row>
+    <row r="298" spans="1:5" ht="18" customHeight="1">
+      <c r="A298" s="108"/>
+      <c r="B298" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C298" s="120" t="s">
+        <v>342</v>
+      </c>
+      <c r="D298" s="121"/>
+      <c r="E298" s="122"/>
+    </row>
+    <row r="300" spans="1:5" ht="18" customHeight="1">
+      <c r="A300" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B300" s="123"/>
+      <c r="C300" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E300" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="18" customHeight="1">
+      <c r="A301" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B301" s="119"/>
+      <c r="C301" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D301" s="132"/>
+      <c r="E301" s="133"/>
+    </row>
+    <row r="302" spans="1:5" ht="18" customHeight="1">
+      <c r="A302" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B302" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302" s="113" t="s">
+        <v>187</v>
+      </c>
+      <c r="D302" s="113"/>
+      <c r="E302" s="113"/>
+    </row>
+    <row r="303" spans="1:5" ht="18" customHeight="1">
+      <c r="A303" s="110"/>
+      <c r="B303" s="137"/>
+      <c r="C303" s="113" t="s">
+        <v>249</v>
+      </c>
+      <c r="D303" s="113"/>
+      <c r="E303" s="113"/>
+    </row>
+    <row r="304" spans="1:5" ht="18" customHeight="1">
+      <c r="A304" s="107"/>
+      <c r="B304" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C304" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="D304" s="115"/>
+      <c r="E304" s="116"/>
+    </row>
+    <row r="305" spans="1:5" ht="18" customHeight="1">
+      <c r="A305" s="107"/>
+      <c r="B305" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" s="120" t="s">
+        <v>253</v>
+      </c>
+      <c r="D305" s="121"/>
+      <c r="E305" s="122"/>
+    </row>
+    <row r="306" spans="1:5" ht="18" customHeight="1">
+      <c r="A306" s="108"/>
+      <c r="B306" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C306" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="D306" s="121"/>
+      <c r="E306" s="122"/>
+    </row>
+    <row r="308" spans="1:5" ht="18" customHeight="1">
+      <c r="A308" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B308" s="123"/>
+      <c r="C308" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="18" customHeight="1">
-      <c r="A294" s="112" t="s">
+    <row r="309" spans="1:5" ht="18" customHeight="1">
+      <c r="A309" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B294" s="114"/>
-      <c r="C294" s="119" t="s">
+      <c r="B309" s="119"/>
+      <c r="C309" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="D294" s="120"/>
-      <c r="E294" s="121"/>
-    </row>
-    <row r="295" spans="1:5" ht="18" customHeight="1">
-      <c r="A295" s="105" t="s">
+      <c r="D309" s="132"/>
+      <c r="E309" s="133"/>
+    </row>
+    <row r="310" spans="1:5" ht="18" customHeight="1">
+      <c r="A310" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B295" s="122" t="s">
+      <c r="B310" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C295" s="108" t="s">
+      <c r="C310" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="D295" s="108"/>
-      <c r="E295" s="108"/>
-    </row>
-    <row r="296" spans="1:5" ht="18" customHeight="1">
-      <c r="A296" s="106"/>
-      <c r="B296" s="122"/>
-      <c r="C296" s="108" t="s">
+      <c r="D310" s="113"/>
+      <c r="E310" s="113"/>
+    </row>
+    <row r="311" spans="1:5" ht="18" customHeight="1">
+      <c r="A311" s="110"/>
+      <c r="B311" s="137"/>
+      <c r="C311" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="D296" s="108"/>
-      <c r="E296" s="108"/>
-    </row>
-    <row r="297" spans="1:5" ht="18" customHeight="1">
-      <c r="A297" s="103"/>
-      <c r="B297" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C297" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="D297" s="110"/>
-      <c r="E297" s="111"/>
-    </row>
-    <row r="298" spans="1:5" ht="18" customHeight="1">
-      <c r="A298" s="103"/>
-      <c r="B298" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C298" s="115"/>
-      <c r="D298" s="116"/>
-      <c r="E298" s="117"/>
-    </row>
-    <row r="299" spans="1:5" ht="18" customHeight="1">
-      <c r="A299" s="104"/>
-      <c r="B299" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C299" s="115" t="s">
-        <v>148</v>
-      </c>
-      <c r="D299" s="116"/>
-      <c r="E299" s="117"/>
-    </row>
-    <row r="301" spans="1:5" ht="18" customHeight="1">
-      <c r="A301" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="B301" s="118"/>
-      <c r="C301" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D301" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E301" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="18" customHeight="1">
-      <c r="A302" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="B302" s="114"/>
-      <c r="C302" s="151" t="s">
-        <v>189</v>
-      </c>
-      <c r="D302" s="152"/>
-      <c r="E302" s="153"/>
-    </row>
-    <row r="303" spans="1:5" ht="18" customHeight="1">
-      <c r="A303" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="B303" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C303" s="146" t="s">
-        <v>190</v>
-      </c>
-      <c r="D303" s="147"/>
-      <c r="E303" s="148"/>
-    </row>
-    <row r="304" spans="1:5" ht="18" customHeight="1">
-      <c r="A304" s="106"/>
-      <c r="B304" s="163"/>
-      <c r="C304" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="D304" s="147"/>
-      <c r="E304" s="148"/>
-    </row>
-    <row r="305" spans="1:5" ht="18" customHeight="1">
-      <c r="A305" s="106"/>
-      <c r="B305" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C305" s="108" t="s">
-        <v>188</v>
-      </c>
-      <c r="D305" s="108"/>
-      <c r="E305" s="108"/>
-    </row>
-    <row r="306" spans="1:5" ht="18" customHeight="1">
-      <c r="A306" s="106"/>
-      <c r="B306" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C306" s="108"/>
-      <c r="D306" s="108"/>
-      <c r="E306" s="108"/>
-    </row>
-    <row r="307" spans="1:5" ht="18" customHeight="1">
-      <c r="A307" s="161"/>
-      <c r="B307" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C307" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="D307" s="108"/>
-      <c r="E307" s="108"/>
-    </row>
-    <row r="309" spans="1:5" ht="18" customHeight="1">
-      <c r="A309" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="B309" s="118"/>
-      <c r="C309" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D309" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E309" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" ht="18" customHeight="1">
-      <c r="A310" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B310" s="114"/>
-      <c r="C310" s="119" t="s">
-        <v>180</v>
-      </c>
-      <c r="D310" s="120"/>
-      <c r="E310" s="121"/>
-    </row>
-    <row r="311" spans="1:5" ht="18" customHeight="1">
-      <c r="A311" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="B311" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C311" s="108" t="s">
-        <v>192</v>
-      </c>
-      <c r="D311" s="108"/>
-      <c r="E311" s="108"/>
+      <c r="D311" s="113"/>
+      <c r="E311" s="113"/>
     </row>
     <row r="312" spans="1:5" ht="18" customHeight="1">
-      <c r="A312" s="103"/>
+      <c r="A312" s="107"/>
       <c r="B312" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C312" s="109" t="s">
-        <v>193</v>
-      </c>
-      <c r="D312" s="110"/>
-      <c r="E312" s="111"/>
+      <c r="C312" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="D312" s="115"/>
+      <c r="E312" s="116"/>
     </row>
     <row r="313" spans="1:5" ht="18" customHeight="1">
-      <c r="A313" s="103"/>
+      <c r="A313" s="107"/>
       <c r="B313" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C313" s="115"/>
-      <c r="D313" s="116"/>
-      <c r="E313" s="117"/>
+      <c r="C313" s="120"/>
+      <c r="D313" s="121"/>
+      <c r="E313" s="122"/>
     </row>
     <row r="314" spans="1:5" ht="18" customHeight="1">
-      <c r="A314" s="104"/>
+      <c r="A314" s="108"/>
       <c r="B314" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C314" s="115"/>
-      <c r="D314" s="116"/>
-      <c r="E314" s="117"/>
+      <c r="C314" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="D314" s="121"/>
+      <c r="E314" s="122"/>
     </row>
     <row r="316" spans="1:5" ht="18" customHeight="1">
-      <c r="A316" s="112" t="s">
+      <c r="A316" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B316" s="118"/>
+      <c r="B316" s="123"/>
       <c r="C316" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="18" customHeight="1">
-      <c r="A317" s="112" t="s">
+      <c r="A317" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B317" s="114"/>
-      <c r="C317" s="119" t="s">
-        <v>194</v>
-      </c>
-      <c r="D317" s="120"/>
-      <c r="E317" s="121"/>
+      <c r="B317" s="119"/>
+      <c r="C317" s="165" t="s">
+        <v>189</v>
+      </c>
+      <c r="D317" s="129"/>
+      <c r="E317" s="130"/>
     </row>
     <row r="318" spans="1:5" ht="18" customHeight="1">
-      <c r="A318" s="105" t="s">
+      <c r="A318" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B318" s="12" t="s">
+      <c r="B318" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="C318" s="108" t="s">
-        <v>256</v>
-      </c>
-      <c r="D318" s="108"/>
-      <c r="E318" s="108"/>
+      <c r="C318" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="D318" s="135"/>
+      <c r="E318" s="136"/>
     </row>
     <row r="319" spans="1:5" ht="18" customHeight="1">
-      <c r="A319" s="103"/>
-      <c r="B319" s="11" t="s">
+      <c r="A319" s="110"/>
+      <c r="B319" s="175"/>
+      <c r="C319" s="134" t="s">
+        <v>191</v>
+      </c>
+      <c r="D319" s="135"/>
+      <c r="E319" s="136"/>
+    </row>
+    <row r="320" spans="1:5" ht="18" customHeight="1">
+      <c r="A320" s="110"/>
+      <c r="B320" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C319" s="109" t="s">
-        <v>193</v>
-      </c>
-      <c r="D319" s="110"/>
-      <c r="E319" s="111"/>
-    </row>
-    <row r="320" spans="1:5" ht="18" customHeight="1">
-      <c r="A320" s="103"/>
-      <c r="B320" s="11" t="s">
+      <c r="C320" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="D320" s="113"/>
+      <c r="E320" s="113"/>
+    </row>
+    <row r="321" spans="1:5" ht="18" customHeight="1">
+      <c r="A321" s="110"/>
+      <c r="B321" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C320" s="115"/>
-      <c r="D320" s="116"/>
-      <c r="E320" s="117"/>
-    </row>
-    <row r="321" spans="1:5" ht="18" customHeight="1">
-      <c r="A321" s="104"/>
-      <c r="B321" s="11" t="s">
+      <c r="C321" s="113"/>
+      <c r="D321" s="113"/>
+      <c r="E321" s="113"/>
+    </row>
+    <row r="322" spans="1:5" ht="18" customHeight="1">
+      <c r="A322" s="173"/>
+      <c r="B322" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C321" s="115"/>
-      <c r="D321" s="116"/>
-      <c r="E321" s="117"/>
-    </row>
-    <row r="323" spans="1:5" ht="18" customHeight="1">
-      <c r="A323" s="112" t="s">
+      <c r="C322" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="D322" s="113"/>
+      <c r="E322" s="113"/>
+    </row>
+    <row r="324" spans="1:5" ht="18" customHeight="1">
+      <c r="A324" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B323" s="118"/>
-      <c r="C323" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D323" s="9" t="s">
+      <c r="B324" s="123"/>
+      <c r="C324" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D324" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E323" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="18" customHeight="1">
-      <c r="A324" s="112" t="s">
+      <c r="E324" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="18" customHeight="1">
+      <c r="A325" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B324" s="114"/>
-      <c r="C324" s="119" t="s">
-        <v>186</v>
-      </c>
-      <c r="D324" s="120"/>
-      <c r="E324" s="121"/>
-    </row>
-    <row r="325" spans="1:5" ht="18" customHeight="1">
-      <c r="A325" s="105" t="s">
+      <c r="B325" s="119"/>
+      <c r="C325" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="D325" s="132"/>
+      <c r="E325" s="133"/>
+    </row>
+    <row r="326" spans="1:5" ht="18" customHeight="1">
+      <c r="A326" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B325" s="122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C325" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="D325" s="108"/>
-      <c r="E325" s="108"/>
-    </row>
-    <row r="326" spans="1:5" ht="18" customHeight="1">
-      <c r="A326" s="106"/>
-      <c r="B326" s="122"/>
-      <c r="C326" s="108" t="s">
-        <v>359</v>
-      </c>
-      <c r="D326" s="108"/>
-      <c r="E326" s="108"/>
+      <c r="B326" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="D326" s="113"/>
+      <c r="E326" s="113"/>
     </row>
     <row r="327" spans="1:5" ht="18" customHeight="1">
-      <c r="A327" s="103"/>
+      <c r="A327" s="107"/>
       <c r="B327" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C327" s="109" t="s">
+      <c r="C327" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D327" s="110"/>
-      <c r="E327" s="111"/>
+      <c r="D327" s="115"/>
+      <c r="E327" s="116"/>
     </row>
     <row r="328" spans="1:5" ht="18" customHeight="1">
-      <c r="A328" s="103"/>
+      <c r="A328" s="107"/>
       <c r="B328" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C328" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="D328" s="116"/>
-      <c r="E328" s="117"/>
+      <c r="C328" s="120"/>
+      <c r="D328" s="121"/>
+      <c r="E328" s="122"/>
     </row>
     <row r="329" spans="1:5" ht="18" customHeight="1">
-      <c r="A329" s="104"/>
+      <c r="A329" s="108"/>
       <c r="B329" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C329" s="115"/>
-      <c r="D329" s="116"/>
-      <c r="E329" s="117"/>
+      <c r="C329" s="120"/>
+      <c r="D329" s="121"/>
+      <c r="E329" s="122"/>
     </row>
     <row r="331" spans="1:5" ht="18" customHeight="1">
-      <c r="A331" s="112" t="s">
+      <c r="A331" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B331" s="118"/>
+      <c r="B331" s="123"/>
       <c r="C331" s="8" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="D331" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E331" s="10" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="18" customHeight="1">
-      <c r="A332" s="112" t="s">
+      <c r="A332" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B332" s="114"/>
-      <c r="C332" s="119" t="s">
-        <v>236</v>
-      </c>
-      <c r="D332" s="120"/>
-      <c r="E332" s="121"/>
+      <c r="B332" s="119"/>
+      <c r="C332" s="131" t="s">
+        <v>194</v>
+      </c>
+      <c r="D332" s="132"/>
+      <c r="E332" s="133"/>
     </row>
     <row r="333" spans="1:5" ht="18" customHeight="1">
-      <c r="A333" s="105" t="s">
+      <c r="A333" s="109" t="s">
         <v>17</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C333" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="D333" s="108"/>
-      <c r="E333" s="108"/>
+        <v>13</v>
+      </c>
+      <c r="C333" s="113" t="s">
+        <v>256</v>
+      </c>
+      <c r="D333" s="113"/>
+      <c r="E333" s="113"/>
     </row>
     <row r="334" spans="1:5" ht="18" customHeight="1">
-      <c r="A334" s="103"/>
+      <c r="A334" s="107"/>
       <c r="B334" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C334" s="109" t="s">
+      <c r="C334" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D334" s="110"/>
-      <c r="E334" s="111"/>
+      <c r="D334" s="115"/>
+      <c r="E334" s="116"/>
     </row>
     <row r="335" spans="1:5" ht="18" customHeight="1">
-      <c r="A335" s="103"/>
+      <c r="A335" s="107"/>
       <c r="B335" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C335" s="115" t="s">
-        <v>184</v>
-      </c>
-      <c r="D335" s="116"/>
-      <c r="E335" s="117"/>
+      <c r="C335" s="120"/>
+      <c r="D335" s="121"/>
+      <c r="E335" s="122"/>
     </row>
     <row r="336" spans="1:5" ht="18" customHeight="1">
-      <c r="A336" s="104"/>
+      <c r="A336" s="108"/>
       <c r="B336" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C336" s="115"/>
-      <c r="D336" s="116"/>
-      <c r="E336" s="117"/>
+      <c r="C336" s="120"/>
+      <c r="D336" s="121"/>
+      <c r="E336" s="122"/>
     </row>
     <row r="338" spans="1:5" ht="18" customHeight="1">
-      <c r="A338" s="112" t="s">
+      <c r="A338" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B338" s="118"/>
-      <c r="C338" s="33" t="s">
-        <v>196</v>
+      <c r="B338" s="123"/>
+      <c r="C338" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E338" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="18" customHeight="1">
+      <c r="A339" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B339" s="119"/>
+      <c r="C339" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="D339" s="132"/>
+      <c r="E339" s="133"/>
+    </row>
+    <row r="340" spans="1:5" ht="18" customHeight="1">
+      <c r="A340" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B340" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="D340" s="113"/>
+      <c r="E340" s="113"/>
+    </row>
+    <row r="341" spans="1:5" ht="18" customHeight="1">
+      <c r="A341" s="110"/>
+      <c r="B341" s="137"/>
+      <c r="C341" s="113" t="s">
+        <v>359</v>
+      </c>
+      <c r="D341" s="113"/>
+      <c r="E341" s="113"/>
+    </row>
+    <row r="342" spans="1:5" ht="18" customHeight="1">
+      <c r="A342" s="107"/>
+      <c r="B342" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C342" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="D342" s="115"/>
+      <c r="E342" s="116"/>
+    </row>
+    <row r="343" spans="1:5" ht="18" customHeight="1">
+      <c r="A343" s="107"/>
+      <c r="B343" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C343" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="D343" s="121"/>
+      <c r="E343" s="122"/>
+    </row>
+    <row r="344" spans="1:5" ht="18" customHeight="1">
+      <c r="A344" s="108"/>
+      <c r="B344" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C344" s="120"/>
+      <c r="D344" s="121"/>
+      <c r="E344" s="122"/>
+    </row>
+    <row r="346" spans="1:5" ht="18" customHeight="1">
+      <c r="A346" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B346" s="123"/>
+      <c r="C346" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D346" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E346" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="18" customHeight="1">
+      <c r="A347" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B347" s="119"/>
+      <c r="C347" s="131" t="s">
+        <v>236</v>
+      </c>
+      <c r="D347" s="132"/>
+      <c r="E347" s="133"/>
+    </row>
+    <row r="348" spans="1:5" ht="18" customHeight="1">
+      <c r="A348" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" s="113" t="s">
+        <v>258</v>
+      </c>
+      <c r="D348" s="113"/>
+      <c r="E348" s="113"/>
+    </row>
+    <row r="349" spans="1:5" ht="18" customHeight="1">
+      <c r="A349" s="107"/>
+      <c r="B349" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C349" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="D349" s="115"/>
+      <c r="E349" s="116"/>
+    </row>
+    <row r="350" spans="1:5" ht="18" customHeight="1">
+      <c r="A350" s="107"/>
+      <c r="B350" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C350" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="D350" s="121"/>
+      <c r="E350" s="122"/>
+    </row>
+    <row r="351" spans="1:5" ht="18" customHeight="1">
+      <c r="A351" s="108"/>
+      <c r="B351" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C351" s="120"/>
+      <c r="D351" s="121"/>
+      <c r="E351" s="122"/>
+    </row>
+    <row r="353" spans="1:5" ht="18" customHeight="1">
+      <c r="A353" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B353" s="123"/>
+      <c r="C353" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D353" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E353" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="18" customHeight="1">
-      <c r="A339" s="112" t="s">
+    <row r="354" spans="1:5" ht="18" customHeight="1">
+      <c r="A354" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B339" s="114"/>
-      <c r="C339" s="119" t="s">
+      <c r="B354" s="119"/>
+      <c r="C354" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="D339" s="120"/>
-      <c r="E339" s="121"/>
-    </row>
-    <row r="340" spans="1:5" ht="18" customHeight="1">
-      <c r="A340" s="105" t="s">
+      <c r="D354" s="132"/>
+      <c r="E354" s="133"/>
+    </row>
+    <row r="355" spans="1:5" ht="18" customHeight="1">
+      <c r="A355" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B340" s="12" t="s">
+      <c r="B355" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C340" s="108" t="s">
+      <c r="C355" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="D340" s="108"/>
-      <c r="E340" s="108"/>
-    </row>
-    <row r="341" spans="1:5" ht="18" customHeight="1">
-      <c r="A341" s="103"/>
-      <c r="B341" s="11" t="s">
+      <c r="D355" s="113"/>
+      <c r="E355" s="113"/>
+    </row>
+    <row r="356" spans="1:5" ht="18" customHeight="1">
+      <c r="A356" s="107"/>
+      <c r="B356" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C341" s="109" t="s">
+      <c r="C356" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D341" s="110"/>
-      <c r="E341" s="111"/>
-    </row>
-    <row r="342" spans="1:5" ht="18" customHeight="1">
-      <c r="A342" s="103"/>
-      <c r="B342" s="11" t="s">
+      <c r="D356" s="115"/>
+      <c r="E356" s="116"/>
+    </row>
+    <row r="357" spans="1:5" ht="18" customHeight="1">
+      <c r="A357" s="107"/>
+      <c r="B357" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C342" s="115"/>
-      <c r="D342" s="116"/>
-      <c r="E342" s="117"/>
-    </row>
-    <row r="343" spans="1:5" ht="18" customHeight="1">
-      <c r="A343" s="104"/>
-      <c r="B343" s="11" t="s">
+      <c r="C357" s="120"/>
+      <c r="D357" s="121"/>
+      <c r="E357" s="122"/>
+    </row>
+    <row r="358" spans="1:5" ht="18" customHeight="1">
+      <c r="A358" s="108"/>
+      <c r="B358" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C343" s="115"/>
-      <c r="D343" s="116"/>
-      <c r="E343" s="117"/>
-    </row>
-    <row r="345" spans="1:5" ht="18" customHeight="1">
-      <c r="A345" s="112" t="s">
+      <c r="C358" s="120"/>
+      <c r="D358" s="121"/>
+      <c r="E358" s="122"/>
+    </row>
+    <row r="360" spans="1:5" ht="18" customHeight="1">
+      <c r="A360" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B345" s="118"/>
-      <c r="C345" s="33" t="s">
+      <c r="B360" s="123"/>
+      <c r="C360" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="D345" s="9" t="s">
+      <c r="D360" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E345" s="10" t="s">
+      <c r="E360" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="18" customHeight="1">
-      <c r="A346" s="112" t="s">
+    <row r="361" spans="1:5" ht="18" customHeight="1">
+      <c r="A361" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B346" s="114"/>
-      <c r="C346" s="119" t="s">
+      <c r="B361" s="119"/>
+      <c r="C361" s="131" t="s">
         <v>263</v>
       </c>
-      <c r="D346" s="120"/>
-      <c r="E346" s="121"/>
-    </row>
-    <row r="347" spans="1:5" ht="18" customHeight="1">
-      <c r="A347" s="105" t="s">
+      <c r="D361" s="132"/>
+      <c r="E361" s="133"/>
+    </row>
+    <row r="362" spans="1:5" ht="18" customHeight="1">
+      <c r="A362" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B347" s="122" t="s">
+      <c r="B362" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="C347" s="108" t="s">
+      <c r="C362" s="113" t="s">
         <v>362</v>
       </c>
-      <c r="D347" s="108"/>
-      <c r="E347" s="108"/>
-    </row>
-    <row r="348" spans="1:5" ht="18" customHeight="1">
-      <c r="A348" s="106"/>
-      <c r="B348" s="122"/>
-      <c r="C348" s="108" t="s">
+      <c r="D362" s="113"/>
+      <c r="E362" s="113"/>
+    </row>
+    <row r="363" spans="1:5" ht="18" customHeight="1">
+      <c r="A363" s="110"/>
+      <c r="B363" s="137"/>
+      <c r="C363" s="113" t="s">
         <v>269</v>
       </c>
-      <c r="D348" s="108"/>
-      <c r="E348" s="108"/>
-    </row>
-    <row r="349" spans="1:5" ht="18" customHeight="1">
-      <c r="A349" s="106"/>
-      <c r="B349" s="122"/>
-      <c r="C349" s="108" t="s">
+      <c r="D363" s="113"/>
+      <c r="E363" s="113"/>
+    </row>
+    <row r="364" spans="1:5" ht="18" customHeight="1">
+      <c r="A364" s="110"/>
+      <c r="B364" s="137"/>
+      <c r="C364" s="113" t="s">
         <v>361</v>
       </c>
-      <c r="D349" s="108"/>
-      <c r="E349" s="108"/>
-    </row>
-    <row r="350" spans="1:5" ht="18" customHeight="1">
-      <c r="A350" s="103"/>
-      <c r="B350" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C350" s="157" t="s">
-        <v>193</v>
-      </c>
-      <c r="D350" s="158"/>
-      <c r="E350" s="159"/>
-    </row>
-    <row r="351" spans="1:5" ht="18" customHeight="1">
-      <c r="A351" s="103"/>
-      <c r="B351" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C351" s="115"/>
-      <c r="D351" s="116"/>
-      <c r="E351" s="117"/>
-    </row>
-    <row r="352" spans="1:5" ht="18" customHeight="1">
-      <c r="A352" s="104"/>
-      <c r="B352" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C352" s="115" t="s">
-        <v>264</v>
-      </c>
-      <c r="D352" s="116"/>
-      <c r="E352" s="117"/>
-    </row>
-    <row r="354" spans="1:5" ht="18" customHeight="1">
-      <c r="A354" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="B354" s="118"/>
-      <c r="C354" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D354" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E354" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="18" customHeight="1">
-      <c r="A355" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B355" s="114"/>
-      <c r="C355" s="119" t="s">
-        <v>204</v>
-      </c>
-      <c r="D355" s="120"/>
-      <c r="E355" s="121"/>
-    </row>
-    <row r="356" spans="1:5" ht="18" customHeight="1">
-      <c r="A356" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="B356" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="C356" s="108" t="s">
-        <v>265</v>
-      </c>
-      <c r="D356" s="108"/>
-      <c r="E356" s="108"/>
-    </row>
-    <row r="357" spans="1:5" ht="18" customHeight="1">
-      <c r="A357" s="106"/>
-      <c r="B357" s="122"/>
-      <c r="C357" s="108" t="s">
-        <v>205</v>
-      </c>
-      <c r="D357" s="108"/>
-      <c r="E357" s="108"/>
-    </row>
-    <row r="358" spans="1:5" ht="18" customHeight="1">
-      <c r="A358" s="103"/>
-      <c r="B358" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C358" s="109" t="s">
-        <v>193</v>
-      </c>
-      <c r="D358" s="110"/>
-      <c r="E358" s="111"/>
-    </row>
-    <row r="359" spans="1:5" ht="18" customHeight="1">
-      <c r="A359" s="103"/>
-      <c r="B359" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C359" s="115"/>
-      <c r="D359" s="116"/>
-      <c r="E359" s="117"/>
-    </row>
-    <row r="360" spans="1:5" ht="18" customHeight="1">
-      <c r="A360" s="104"/>
-      <c r="B360" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C360" s="115"/>
-      <c r="D360" s="116"/>
-      <c r="E360" s="117"/>
-    </row>
-    <row r="362" spans="1:5" ht="18" customHeight="1">
-      <c r="A362" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="B362" s="118"/>
-      <c r="C362" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="D362" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E362" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="18" customHeight="1">
-      <c r="A363" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="B363" s="114"/>
-      <c r="C363" s="119" t="s">
-        <v>266</v>
-      </c>
-      <c r="D363" s="120"/>
-      <c r="E363" s="121"/>
-    </row>
-    <row r="364" spans="1:5" ht="18" customHeight="1">
-      <c r="A364" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="B364" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C364" s="107" t="s">
-        <v>270</v>
-      </c>
-      <c r="D364" s="108"/>
-      <c r="E364" s="108"/>
+      <c r="D364" s="113"/>
+      <c r="E364" s="113"/>
     </row>
     <row r="365" spans="1:5" ht="18" customHeight="1">
-      <c r="A365" s="103"/>
+      <c r="A365" s="107"/>
       <c r="B365" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C365" s="109" t="s">
+      <c r="C365" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="D365" s="110"/>
-      <c r="E365" s="111"/>
+      <c r="D365" s="170"/>
+      <c r="E365" s="171"/>
     </row>
     <row r="366" spans="1:5" ht="18" customHeight="1">
-      <c r="A366" s="103"/>
+      <c r="A366" s="107"/>
       <c r="B366" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C366" s="115"/>
-      <c r="D366" s="116"/>
-      <c r="E366" s="117"/>
+      <c r="C366" s="120"/>
+      <c r="D366" s="121"/>
+      <c r="E366" s="122"/>
     </row>
     <row r="367" spans="1:5" ht="18" customHeight="1">
-      <c r="A367" s="104"/>
+      <c r="A367" s="108"/>
       <c r="B367" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C367" s="115" t="s">
-        <v>360</v>
-      </c>
-      <c r="D367" s="116"/>
-      <c r="E367" s="117"/>
+      <c r="C367" s="120" t="s">
+        <v>264</v>
+      </c>
+      <c r="D367" s="121"/>
+      <c r="E367" s="122"/>
     </row>
     <row r="369" spans="1:5" ht="18" customHeight="1">
-      <c r="A369" s="112" t="s">
+      <c r="A369" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B369" s="118"/>
+      <c r="B369" s="123"/>
       <c r="C369" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D369" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E369" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="18" customHeight="1">
+      <c r="A370" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B370" s="119"/>
+      <c r="C370" s="131" t="s">
+        <v>204</v>
+      </c>
+      <c r="D370" s="132"/>
+      <c r="E370" s="133"/>
+    </row>
+    <row r="371" spans="1:5" ht="18" customHeight="1">
+      <c r="A371" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B371" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C371" s="113" t="s">
+        <v>265</v>
+      </c>
+      <c r="D371" s="113"/>
+      <c r="E371" s="113"/>
+    </row>
+    <row r="372" spans="1:5" ht="18" customHeight="1">
+      <c r="A372" s="110"/>
+      <c r="B372" s="137"/>
+      <c r="C372" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="D372" s="113"/>
+      <c r="E372" s="113"/>
+    </row>
+    <row r="373" spans="1:5" ht="18" customHeight="1">
+      <c r="A373" s="107"/>
+      <c r="B373" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C373" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="D373" s="115"/>
+      <c r="E373" s="116"/>
+    </row>
+    <row r="374" spans="1:5" ht="18" customHeight="1">
+      <c r="A374" s="107"/>
+      <c r="B374" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C374" s="120"/>
+      <c r="D374" s="121"/>
+      <c r="E374" s="122"/>
+    </row>
+    <row r="375" spans="1:5" ht="18" customHeight="1">
+      <c r="A375" s="108"/>
+      <c r="B375" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C375" s="120"/>
+      <c r="D375" s="121"/>
+      <c r="E375" s="122"/>
+    </row>
+    <row r="377" spans="1:5" ht="18" customHeight="1">
+      <c r="A377" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B377" s="123"/>
+      <c r="C377" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D377" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E377" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="18" customHeight="1">
+      <c r="A378" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B378" s="119"/>
+      <c r="C378" s="131" t="s">
+        <v>266</v>
+      </c>
+      <c r="D378" s="132"/>
+      <c r="E378" s="133"/>
+    </row>
+    <row r="379" spans="1:5" ht="18" customHeight="1">
+      <c r="A379" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B379" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C379" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="D379" s="113"/>
+      <c r="E379" s="113"/>
+    </row>
+    <row r="380" spans="1:5" ht="18" customHeight="1">
+      <c r="A380" s="107"/>
+      <c r="B380" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C380" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="D380" s="115"/>
+      <c r="E380" s="116"/>
+    </row>
+    <row r="381" spans="1:5" ht="18" customHeight="1">
+      <c r="A381" s="107"/>
+      <c r="B381" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C381" s="120"/>
+      <c r="D381" s="121"/>
+      <c r="E381" s="122"/>
+    </row>
+    <row r="382" spans="1:5" ht="18" customHeight="1">
+      <c r="A382" s="108"/>
+      <c r="B382" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C382" s="120" t="s">
+        <v>360</v>
+      </c>
+      <c r="D382" s="121"/>
+      <c r="E382" s="122"/>
+    </row>
+    <row r="384" spans="1:5" ht="18" customHeight="1">
+      <c r="A384" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B384" s="123"/>
+      <c r="C384" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="D384" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E384" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="18" customHeight="1">
-      <c r="A370" s="112" t="s">
+    <row r="385" spans="1:5" ht="18" customHeight="1">
+      <c r="A385" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B370" s="114"/>
-      <c r="C370" s="119" t="s">
+      <c r="B385" s="119"/>
+      <c r="C385" s="131" t="s">
         <v>242</v>
       </c>
-      <c r="D370" s="120"/>
-      <c r="E370" s="121"/>
-    </row>
-    <row r="371" spans="1:5" ht="18" customHeight="1">
-      <c r="A371" s="105" t="s">
+      <c r="D385" s="132"/>
+      <c r="E385" s="133"/>
+    </row>
+    <row r="386" spans="1:5" ht="18" customHeight="1">
+      <c r="A386" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B371" s="12" t="s">
+      <c r="B386" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C371" s="108" t="s">
+      <c r="C386" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="D371" s="108"/>
-      <c r="E371" s="108"/>
-    </row>
-    <row r="372" spans="1:5" ht="18" customHeight="1">
-      <c r="A372" s="103"/>
-      <c r="B372" s="11" t="s">
+      <c r="D386" s="113"/>
+      <c r="E386" s="113"/>
+    </row>
+    <row r="387" spans="1:5" ht="18" customHeight="1">
+      <c r="A387" s="107"/>
+      <c r="B387" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C372" s="109" t="s">
+      <c r="C387" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D372" s="110"/>
-      <c r="E372" s="111"/>
-    </row>
-    <row r="373" spans="1:5" ht="18" customHeight="1">
-      <c r="A373" s="103"/>
-      <c r="B373" s="11" t="s">
+      <c r="D387" s="115"/>
+      <c r="E387" s="116"/>
+    </row>
+    <row r="388" spans="1:5" ht="18" customHeight="1">
+      <c r="A388" s="107"/>
+      <c r="B388" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C373" s="115"/>
-      <c r="D373" s="116"/>
-      <c r="E373" s="117"/>
-    </row>
-    <row r="374" spans="1:5" ht="18" customHeight="1">
-      <c r="A374" s="104"/>
-      <c r="B374" s="11" t="s">
+      <c r="C388" s="120"/>
+      <c r="D388" s="121"/>
+      <c r="E388" s="122"/>
+    </row>
+    <row r="389" spans="1:5" ht="18" customHeight="1">
+      <c r="A389" s="108"/>
+      <c r="B389" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C374" s="115" t="s">
+      <c r="C389" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="D374" s="116"/>
-      <c r="E374" s="117"/>
+      <c r="D389" s="121"/>
+      <c r="E389" s="122"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="C265:E265"/>
-    <mergeCell ref="C348:E348"/>
+  <mergeCells count="469">
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="C280:E280"/>
+    <mergeCell ref="C363:E363"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="C69:E69"/>
     <mergeCell ref="A70:A73"/>
@@ -8310,6 +8561,17 @@
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="C76:E76"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="A151:A154"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="C62:E62"/>
@@ -8378,14 +8640,11 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="A151:A154"/>
     <mergeCell ref="C151:E151"/>
     <mergeCell ref="C152:E152"/>
     <mergeCell ref="C153:E153"/>
     <mergeCell ref="C154:E154"/>
+    <mergeCell ref="A142:B142"/>
     <mergeCell ref="A143:B143"/>
     <mergeCell ref="C143:E143"/>
     <mergeCell ref="A144:A147"/>
@@ -8393,20 +8652,30 @@
     <mergeCell ref="C145:E145"/>
     <mergeCell ref="C146:E146"/>
     <mergeCell ref="C147:E147"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="A149:B149"/>
     <mergeCell ref="A137:A140"/>
     <mergeCell ref="C137:E137"/>
     <mergeCell ref="C138:E138"/>
     <mergeCell ref="C139:E139"/>
     <mergeCell ref="C140:E140"/>
-    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:E129"/>
     <mergeCell ref="A130:A133"/>
     <mergeCell ref="C130:E130"/>
     <mergeCell ref="C131:E131"/>
     <mergeCell ref="C132:E132"/>
     <mergeCell ref="C133:E133"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:E136"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A122:B122"/>
     <mergeCell ref="C122:E122"/>
@@ -8415,16 +8684,6 @@
     <mergeCell ref="C124:E124"/>
     <mergeCell ref="C125:E125"/>
     <mergeCell ref="C126:E126"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:E129"/>
     <mergeCell ref="A107:B107"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="C108:E108"/>
@@ -8456,23 +8715,23 @@
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C96:E96"/>
     <mergeCell ref="C97:E97"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A370:B370"/>
-    <mergeCell ref="C370:E370"/>
-    <mergeCell ref="A371:A374"/>
-    <mergeCell ref="C371:E371"/>
-    <mergeCell ref="C372:E372"/>
-    <mergeCell ref="C373:E373"/>
-    <mergeCell ref="C374:E374"/>
-    <mergeCell ref="C364:E364"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="C332:E332"/>
-    <mergeCell ref="A333:A336"/>
-    <mergeCell ref="C333:E333"/>
-    <mergeCell ref="C334:E334"/>
-    <mergeCell ref="C335:E335"/>
-    <mergeCell ref="C336:E336"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="A385:B385"/>
+    <mergeCell ref="C385:E385"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="C386:E386"/>
+    <mergeCell ref="C387:E387"/>
+    <mergeCell ref="C388:E388"/>
+    <mergeCell ref="C389:E389"/>
+    <mergeCell ref="C379:E379"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="C347:E347"/>
+    <mergeCell ref="A348:A351"/>
+    <mergeCell ref="C348:E348"/>
+    <mergeCell ref="C349:E349"/>
+    <mergeCell ref="C350:E350"/>
+    <mergeCell ref="C351:E351"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C82:E82"/>
@@ -8488,6 +8747,7 @@
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C86:E86"/>
     <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A242:B242"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -8500,166 +8760,166 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A231:A239"/>
+    <mergeCell ref="B231:B236"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="C233:E233"/>
+    <mergeCell ref="C240:E240"/>
+    <mergeCell ref="C231:E231"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="C262:E262"/>
+    <mergeCell ref="C264:E264"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C243:E243"/>
+    <mergeCell ref="C252:E252"/>
+    <mergeCell ref="C234:E234"/>
     <mergeCell ref="C235:E235"/>
     <mergeCell ref="C236:E236"/>
     <mergeCell ref="C237:E237"/>
-    <mergeCell ref="C227:E227"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="C231:E231"/>
-    <mergeCell ref="C232:E232"/>
-    <mergeCell ref="A224:A232"/>
-    <mergeCell ref="B224:B229"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C226:E226"/>
-    <mergeCell ref="C233:E233"/>
-    <mergeCell ref="C224:E224"/>
-    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C238:E238"/>
+    <mergeCell ref="C239:E239"/>
+    <mergeCell ref="B243:B251"/>
+    <mergeCell ref="C244:E244"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="C265:E265"/>
+    <mergeCell ref="C255:E255"/>
+    <mergeCell ref="C257:E257"/>
+    <mergeCell ref="C258:E258"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="A243:A254"/>
+    <mergeCell ref="C253:E253"/>
+    <mergeCell ref="C254:E254"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="C246:E246"/>
     <mergeCell ref="C247:E247"/>
+    <mergeCell ref="C248:E248"/>
     <mergeCell ref="C249:E249"/>
     <mergeCell ref="C250:E250"/>
-    <mergeCell ref="C240:E240"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C243:E243"/>
-    <mergeCell ref="C244:E244"/>
-    <mergeCell ref="A236:A239"/>
-    <mergeCell ref="C238:E238"/>
-    <mergeCell ref="C239:E239"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="C258:E258"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
     <mergeCell ref="C251:E251"/>
-    <mergeCell ref="C252:E252"/>
-    <mergeCell ref="C253:E253"/>
-    <mergeCell ref="C255:E255"/>
-    <mergeCell ref="C256:E256"/>
-    <mergeCell ref="C257:E257"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="C281:E281"/>
-    <mergeCell ref="C282:E282"/>
-    <mergeCell ref="C283:E283"/>
-    <mergeCell ref="A280:A283"/>
-    <mergeCell ref="C280:E280"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C273:E273"/>
     <mergeCell ref="C274:E274"/>
-    <mergeCell ref="C275:E275"/>
-    <mergeCell ref="C276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C279:E279"/>
+    <mergeCell ref="A277:B277"/>
     <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="C286:E286"/>
-    <mergeCell ref="A287:A291"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="C287:E287"/>
-    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C266:E266"/>
+    <mergeCell ref="C267:E267"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="C270:E270"/>
+    <mergeCell ref="C271:E271"/>
+    <mergeCell ref="C272:E272"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="C296:E296"/>
+    <mergeCell ref="C297:E297"/>
+    <mergeCell ref="C298:E298"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="C295:E295"/>
     <mergeCell ref="C289:E289"/>
     <mergeCell ref="C290:E290"/>
     <mergeCell ref="C291:E291"/>
+    <mergeCell ref="C292:E292"/>
+    <mergeCell ref="C294:E294"/>
     <mergeCell ref="A293:B293"/>
     <mergeCell ref="A294:B294"/>
-    <mergeCell ref="C294:E294"/>
-    <mergeCell ref="A295:A299"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="C295:E295"/>
-    <mergeCell ref="C296:E296"/>
-    <mergeCell ref="C297:E297"/>
-    <mergeCell ref="C298:E298"/>
-    <mergeCell ref="C299:E299"/>
+    <mergeCell ref="A300:B300"/>
     <mergeCell ref="A301:B301"/>
+    <mergeCell ref="C301:E301"/>
+    <mergeCell ref="A302:A306"/>
+    <mergeCell ref="B302:B303"/>
     <mergeCell ref="C302:E302"/>
     <mergeCell ref="C303:E303"/>
     <mergeCell ref="C304:E304"/>
     <mergeCell ref="C305:E305"/>
     <mergeCell ref="C306:E306"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A303:A307"/>
-    <mergeCell ref="B303:B304"/>
-    <mergeCell ref="C307:E307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="C309:E309"/>
+    <mergeCell ref="A310:A314"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="C310:E310"/>
+    <mergeCell ref="C311:E311"/>
+    <mergeCell ref="C312:E312"/>
+    <mergeCell ref="C313:E313"/>
+    <mergeCell ref="C314:E314"/>
     <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A317:B317"/>
     <mergeCell ref="C317:E317"/>
-    <mergeCell ref="A318:A321"/>
     <mergeCell ref="C318:E318"/>
     <mergeCell ref="C319:E319"/>
     <mergeCell ref="C320:E320"/>
     <mergeCell ref="C321:E321"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="C310:E310"/>
-    <mergeCell ref="A311:A314"/>
-    <mergeCell ref="C311:E311"/>
-    <mergeCell ref="C312:E312"/>
-    <mergeCell ref="C313:E313"/>
-    <mergeCell ref="C314:E314"/>
-    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A318:A322"/>
+    <mergeCell ref="B318:B319"/>
+    <mergeCell ref="C322:E322"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="C332:E332"/>
+    <mergeCell ref="A333:A336"/>
+    <mergeCell ref="C333:E333"/>
+    <mergeCell ref="C334:E334"/>
+    <mergeCell ref="C335:E335"/>
+    <mergeCell ref="C336:E336"/>
     <mergeCell ref="A324:B324"/>
-    <mergeCell ref="C324:E324"/>
-    <mergeCell ref="A325:A329"/>
-    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="A325:B325"/>
     <mergeCell ref="C325:E325"/>
+    <mergeCell ref="A326:A329"/>
     <mergeCell ref="C326:E326"/>
     <mergeCell ref="C327:E327"/>
     <mergeCell ref="C328:E328"/>
     <mergeCell ref="C329:E329"/>
-    <mergeCell ref="C350:E350"/>
-    <mergeCell ref="C355:E355"/>
-    <mergeCell ref="A354:B354"/>
-    <mergeCell ref="A355:B355"/>
-    <mergeCell ref="C365:E365"/>
-    <mergeCell ref="C366:E366"/>
-    <mergeCell ref="C367:E367"/>
-    <mergeCell ref="C358:E358"/>
-    <mergeCell ref="C359:E359"/>
-    <mergeCell ref="C360:E360"/>
-    <mergeCell ref="C363:E363"/>
-    <mergeCell ref="A356:A360"/>
-    <mergeCell ref="B356:B357"/>
-    <mergeCell ref="C357:E357"/>
-    <mergeCell ref="A362:B362"/>
-    <mergeCell ref="A363:B363"/>
-    <mergeCell ref="A364:A367"/>
-    <mergeCell ref="C356:E356"/>
     <mergeCell ref="A338:B338"/>
     <mergeCell ref="A339:B339"/>
     <mergeCell ref="C339:E339"/>
-    <mergeCell ref="A340:A343"/>
+    <mergeCell ref="A340:A344"/>
+    <mergeCell ref="B340:B341"/>
     <mergeCell ref="C340:E340"/>
     <mergeCell ref="C341:E341"/>
     <mergeCell ref="C342:E342"/>
     <mergeCell ref="C343:E343"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A346:B346"/>
-    <mergeCell ref="C346:E346"/>
-    <mergeCell ref="A347:A352"/>
-    <mergeCell ref="B347:B349"/>
-    <mergeCell ref="C347:E347"/>
-    <mergeCell ref="C349:E349"/>
-    <mergeCell ref="C351:E351"/>
-    <mergeCell ref="C352:E352"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="A158:A165"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="C158:E158"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C344:E344"/>
+    <mergeCell ref="C365:E365"/>
+    <mergeCell ref="C370:E370"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A370:B370"/>
+    <mergeCell ref="C380:E380"/>
+    <mergeCell ref="C381:E381"/>
+    <mergeCell ref="C382:E382"/>
+    <mergeCell ref="C373:E373"/>
+    <mergeCell ref="C374:E374"/>
+    <mergeCell ref="C375:E375"/>
+    <mergeCell ref="C378:E378"/>
+    <mergeCell ref="A371:A375"/>
+    <mergeCell ref="B371:B372"/>
+    <mergeCell ref="C372:E372"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A378:B378"/>
+    <mergeCell ref="A379:A382"/>
+    <mergeCell ref="C371:E371"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="A354:B354"/>
+    <mergeCell ref="C354:E354"/>
+    <mergeCell ref="A355:A358"/>
+    <mergeCell ref="C355:E355"/>
+    <mergeCell ref="C356:E356"/>
+    <mergeCell ref="C357:E357"/>
+    <mergeCell ref="C358:E358"/>
+    <mergeCell ref="A360:B360"/>
+    <mergeCell ref="A361:B361"/>
+    <mergeCell ref="C361:E361"/>
+    <mergeCell ref="A362:A367"/>
+    <mergeCell ref="B362:B364"/>
+    <mergeCell ref="C362:E362"/>
+    <mergeCell ref="C364:E364"/>
+    <mergeCell ref="C366:E366"/>
+    <mergeCell ref="C367:E367"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A164:B164"/>
     <mergeCell ref="C164:E164"/>
+    <mergeCell ref="A165:A172"/>
+    <mergeCell ref="B165:B169"/>
     <mergeCell ref="C165:E165"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="C167:E167"/>
     <mergeCell ref="C169:E169"/>
     <mergeCell ref="C170:E170"/>
     <mergeCell ref="C171:E171"/>
@@ -8675,19 +8935,19 @@
     <mergeCell ref="A181:B181"/>
     <mergeCell ref="A182:B182"/>
     <mergeCell ref="C182:E182"/>
-    <mergeCell ref="A183:A189"/>
-    <mergeCell ref="B183:B186"/>
+    <mergeCell ref="A183:A186"/>
     <mergeCell ref="C183:E183"/>
     <mergeCell ref="C184:E184"/>
     <mergeCell ref="C185:E185"/>
     <mergeCell ref="C186:E186"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
     <mergeCell ref="C189:E189"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A190:A196"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
     <mergeCell ref="C192:E192"/>
-    <mergeCell ref="A193:A196"/>
     <mergeCell ref="C193:E193"/>
     <mergeCell ref="C194:E194"/>
     <mergeCell ref="C195:E195"/>
@@ -8695,19 +8955,18 @@
     <mergeCell ref="A198:B198"/>
     <mergeCell ref="A199:B199"/>
     <mergeCell ref="C199:E199"/>
-    <mergeCell ref="A200:A205"/>
-    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="A200:A203"/>
     <mergeCell ref="C200:E200"/>
     <mergeCell ref="C201:E201"/>
     <mergeCell ref="C202:E202"/>
     <mergeCell ref="C203:E203"/>
-    <mergeCell ref="C204:E204"/>
-    <mergeCell ref="C205:E205"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="C207:E207"/>
     <mergeCell ref="C208:E208"/>
-    <mergeCell ref="A209:A212"/>
-    <mergeCell ref="F207:H207"/>
     <mergeCell ref="C209:E209"/>
     <mergeCell ref="C210:E210"/>
     <mergeCell ref="C211:E211"/>
@@ -8715,65 +8974,74 @@
     <mergeCell ref="A214:B214"/>
     <mergeCell ref="A215:B215"/>
     <mergeCell ref="C215:E215"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="F214:H214"/>
     <mergeCell ref="C216:E216"/>
     <mergeCell ref="C217:E217"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A223:B223"/>
     <mergeCell ref="C218:E218"/>
     <mergeCell ref="C219:E219"/>
-    <mergeCell ref="C220:E220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="C222:E222"/>
+    <mergeCell ref="A223:A227"/>
+    <mergeCell ref="B223:B224"/>
     <mergeCell ref="C223:E223"/>
-    <mergeCell ref="A264:A269"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C267:E267"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:A246"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A250:A252"/>
-    <mergeCell ref="C269:E269"/>
-    <mergeCell ref="C270:E270"/>
-    <mergeCell ref="C272:E272"/>
-    <mergeCell ref="C273:E273"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C226:E226"/>
+    <mergeCell ref="C227:E227"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="A279:A284"/>
+    <mergeCell ref="B279:B281"/>
+    <mergeCell ref="C282:E282"/>
+    <mergeCell ref="C283:E283"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A288:A291"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A258:A261"/>
     <mergeCell ref="C260:E260"/>
     <mergeCell ref="C261:E261"/>
-    <mergeCell ref="C263:E263"/>
-    <mergeCell ref="C264:E264"/>
-    <mergeCell ref="C266:E266"/>
-    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:A267"/>
+    <mergeCell ref="C284:E284"/>
+    <mergeCell ref="C285:E285"/>
+    <mergeCell ref="C287:E287"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C275:E275"/>
+    <mergeCell ref="C276:E276"/>
+    <mergeCell ref="C278:E278"/>
+    <mergeCell ref="C279:E279"/>
+    <mergeCell ref="C281:E281"/>
+    <mergeCell ref="A271:A275"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C338">
+  <conditionalFormatting sqref="C353">
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",C338)))</formula>
+      <formula>NOT(ISERROR(SEARCH("비회원",C353)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C345">
+  <conditionalFormatting sqref="C360">
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",C345)))</formula>
+      <formula>NOT(ISERROR(SEARCH("비회원",C360)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C384">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="비회원">
+      <formula>NOT(ISERROR(SEARCH("비회원",C384)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C369">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="비회원">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="비회원">
       <formula>NOT(ISERROR(SEARCH("비회원",C369)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C354">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",C354)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C362">
+  <conditionalFormatting sqref="C377">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="비회원">
-      <formula>NOT(ISERROR(SEARCH("비회원",C362)))</formula>
+      <formula>NOT(ISERROR(SEARCH("비회원",C377)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
